--- a/設計書/画面レイアウト/掲示板画面.xlsx
+++ b/設計書/画面レイアウト/掲示板画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makam\Desktop\nuko\設計書\画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9A478B-7126-4357-B53F-AB5689B4BDA9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915C12E5-9218-4268-8544-CF89AD9A8242}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="掲示板" sheetId="12" r:id="rId1"/>
@@ -203,16 +203,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>9月6日</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>栗山</t>
     <rPh sb="0" eb="2">
       <t>クリヤマ</t>
@@ -649,6 +639,10 @@
     <rPh sb="12" eb="13">
       <t>シタ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/9/6</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -936,28 +930,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -976,6 +955,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,32 +1029,17 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5162,60 +5156,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FAF31-7FA1-4843-A935-57F7BF0F397F}">
   <dimension ref="A1:AQ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="18" customWidth="1"/>
-    <col min="7" max="33" width="4.125" style="1" customWidth="1"/>
-    <col min="34" max="37" width="4.125" style="19" customWidth="1"/>
+    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.08984375" style="18" customWidth="1"/>
+    <col min="7" max="33" width="4.08984375" style="1" customWidth="1"/>
+    <col min="34" max="37" width="4.08984375" style="19" customWidth="1"/>
     <col min="38" max="41" width="4" style="1" customWidth="1"/>
     <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
     </row>
     <row r="2" spans="1:37" ht="6" customHeight="1">
       <c r="A2" s="2"/>
@@ -5257,153 +5251,153 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="12">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="26" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="26" t="s">
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="26" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="26" t="s">
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="26" t="s">
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="26" t="s">
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="26" t="s">
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="28"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="61"/>
     </row>
     <row r="4" spans="1:37" ht="12" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="45" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="47" t="s">
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="45" t="s">
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="33" t="s">
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="33" t="s">
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="30"/>
     </row>
     <row r="5" spans="1:37" ht="12">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="38"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="33"/>
     </row>
     <row r="6" spans="1:37" ht="12">
       <c r="A6" s="3"/>
@@ -5548,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
@@ -5589,7 +5583,7 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
@@ -5671,7 +5665,7 @@
         <v>2</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
@@ -5712,7 +5706,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
@@ -5753,7 +5747,7 @@
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
@@ -6419,10 +6413,10 @@
       <c r="R32" s="10"/>
       <c r="S32" s="9"/>
       <c r="U32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
@@ -6485,7 +6479,7 @@
         <v>3</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
@@ -6524,7 +6518,7 @@
       <c r="R35" s="10"/>
       <c r="S35" s="9"/>
       <c r="U35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
@@ -6596,8 +6590,8 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="10"/>
       <c r="S37" s="9"/>
@@ -6605,7 +6599,7 @@
         <v>4</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
@@ -6646,7 +6640,7 @@
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -6736,61 +6730,61 @@
       <c r="AK40" s="16"/>
     </row>
     <row r="41" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="33" t="s">
+      <c r="B41" s="30"/>
+      <c r="C41" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="33" t="s">
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="33" t="s">
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="N41" s="35"/>
-      <c r="O41" s="33" t="s">
+      <c r="N41" s="30"/>
+      <c r="O41" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="32" t="s">
+      <c r="P41" s="30"/>
+      <c r="Q41" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="R41" s="32"/>
-      <c r="S41" s="33" t="s">
+      <c r="R41" s="41"/>
+      <c r="S41" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="T41" s="34"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="33" t="s">
+      <c r="T41" s="29"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="W41" s="34"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="33" t="s">
+      <c r="W41" s="29"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34"/>
-      <c r="AE41" s="34"/>
-      <c r="AF41" s="34"/>
-      <c r="AG41" s="34"/>
-      <c r="AH41" s="34"/>
-      <c r="AI41" s="34"/>
-      <c r="AJ41" s="34"/>
-      <c r="AK41" s="35"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+      <c r="AF41" s="29"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="29"/>
+      <c r="AI41" s="29"/>
+      <c r="AJ41" s="29"/>
+      <c r="AK41" s="30"/>
       <c r="AL41" s="24"/>
       <c r="AM41" s="24"/>
       <c r="AN41" s="24"/>
@@ -6799,43 +6793,43 @@
       <c r="AQ41" s="24"/>
     </row>
     <row r="42" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A42" s="36"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="37"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="37"/>
-      <c r="AA42" s="37"/>
-      <c r="AB42" s="37"/>
-      <c r="AC42" s="37"/>
-      <c r="AD42" s="37"/>
-      <c r="AE42" s="37"/>
-      <c r="AF42" s="37"/>
-      <c r="AG42" s="37"/>
-      <c r="AH42" s="37"/>
-      <c r="AI42" s="37"/>
-      <c r="AJ42" s="37"/>
-      <c r="AK42" s="38"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="31"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="31"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="32"/>
+      <c r="AC42" s="32"/>
+      <c r="AD42" s="32"/>
+      <c r="AE42" s="32"/>
+      <c r="AF42" s="32"/>
+      <c r="AG42" s="32"/>
+      <c r="AH42" s="32"/>
+      <c r="AI42" s="32"/>
+      <c r="AJ42" s="32"/>
+      <c r="AK42" s="33"/>
       <c r="AL42" s="24"/>
       <c r="AM42" s="24"/>
       <c r="AN42" s="24"/>
@@ -6844,61 +6838,61 @@
       <c r="AQ42" s="24"/>
     </row>
     <row r="43" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A43" s="29">
+      <c r="A43" s="25">
         <v>1</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="29" t="s">
+      <c r="B43" s="27"/>
+      <c r="C43" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="N43" s="30"/>
-      <c r="O43" s="29">
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="N43" s="27"/>
+      <c r="O43" s="25">
         <v>128</v>
       </c>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="32" t="s">
+      <c r="P43" s="27"/>
+      <c r="Q43" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="32"/>
-      <c r="S43" s="29" t="s">
+      <c r="R43" s="41"/>
+      <c r="S43" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T43" s="31"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="29" t="s">
+      <c r="T43" s="26"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="W43" s="31"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="31"/>
-      <c r="AC43" s="31"/>
-      <c r="AD43" s="31"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="31"/>
-      <c r="AG43" s="31"/>
-      <c r="AH43" s="31"/>
-      <c r="AI43" s="31"/>
-      <c r="AJ43" s="31"/>
-      <c r="AK43" s="30"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z43" s="26"/>
+      <c r="AA43" s="26"/>
+      <c r="AB43" s="26"/>
+      <c r="AC43" s="26"/>
+      <c r="AD43" s="26"/>
+      <c r="AE43" s="26"/>
+      <c r="AF43" s="26"/>
+      <c r="AG43" s="26"/>
+      <c r="AH43" s="26"/>
+      <c r="AI43" s="26"/>
+      <c r="AJ43" s="26"/>
+      <c r="AK43" s="27"/>
       <c r="AL43" s="24"/>
       <c r="AM43" s="24"/>
       <c r="AN43" s="24"/>
@@ -6907,61 +6901,61 @@
       <c r="AQ43" s="24"/>
     </row>
     <row r="44" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A44" s="29">
+      <c r="A44" s="25">
         <v>2</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="29" t="s">
+      <c r="B44" s="27"/>
+      <c r="C44" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="30"/>
-      <c r="O44" s="29" t="s">
+      <c r="N44" s="27"/>
+      <c r="O44" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="32" t="s">
+      <c r="P44" s="27"/>
+      <c r="Q44" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="32"/>
-      <c r="S44" s="29" t="s">
+      <c r="R44" s="41"/>
+      <c r="S44" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T44" s="31"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="W44" s="31"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z44" s="31"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="31"/>
-      <c r="AC44" s="31"/>
-      <c r="AD44" s="31"/>
-      <c r="AE44" s="31"/>
-      <c r="AF44" s="31"/>
-      <c r="AG44" s="31"/>
-      <c r="AH44" s="31"/>
-      <c r="AI44" s="31"/>
-      <c r="AJ44" s="31"/>
-      <c r="AK44" s="30"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="W44" s="26"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="26"/>
+      <c r="AK44" s="27"/>
       <c r="AL44" s="24"/>
       <c r="AM44" s="24"/>
       <c r="AN44" s="24"/>
@@ -6970,61 +6964,61 @@
       <c r="AQ44" s="24"/>
     </row>
     <row r="45" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A45" s="29">
+      <c r="A45" s="25">
         <v>3</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="29" t="s">
+      <c r="B45" s="27"/>
+      <c r="C45" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N45" s="30"/>
-      <c r="O45" s="29">
+      <c r="N45" s="27"/>
+      <c r="O45" s="25">
         <v>256</v>
       </c>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="32" t="s">
+      <c r="P45" s="27"/>
+      <c r="Q45" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R45" s="32"/>
-      <c r="S45" s="29" t="s">
+      <c r="R45" s="41"/>
+      <c r="S45" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T45" s="31"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="29" t="s">
+      <c r="T45" s="26"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="W45" s="31"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="31"/>
-      <c r="AB45" s="31"/>
-      <c r="AC45" s="31"/>
-      <c r="AD45" s="31"/>
-      <c r="AE45" s="31"/>
-      <c r="AF45" s="31"/>
-      <c r="AG45" s="31"/>
-      <c r="AH45" s="31"/>
-      <c r="AI45" s="31"/>
-      <c r="AJ45" s="31"/>
-      <c r="AK45" s="30"/>
+      <c r="W45" s="26"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z45" s="26"/>
+      <c r="AA45" s="26"/>
+      <c r="AB45" s="26"/>
+      <c r="AC45" s="26"/>
+      <c r="AD45" s="26"/>
+      <c r="AE45" s="26"/>
+      <c r="AF45" s="26"/>
+      <c r="AG45" s="26"/>
+      <c r="AH45" s="26"/>
+      <c r="AI45" s="26"/>
+      <c r="AJ45" s="26"/>
+      <c r="AK45" s="27"/>
       <c r="AL45" s="24"/>
       <c r="AM45" s="24"/>
       <c r="AN45" s="24"/>
@@ -7033,61 +7027,61 @@
       <c r="AQ45" s="24"/>
     </row>
     <row r="46" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A46" s="29">
+      <c r="A46" s="25">
         <v>4</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="29" t="s">
+      <c r="B46" s="27"/>
+      <c r="C46" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="N46" s="30"/>
-      <c r="O46" s="29" t="s">
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N46" s="27"/>
+      <c r="O46" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="29" t="s">
+      <c r="P46" s="27"/>
+      <c r="Q46" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R46" s="30"/>
-      <c r="S46" s="29" t="s">
+      <c r="R46" s="27"/>
+      <c r="S46" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T46" s="31"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="W46" s="56"/>
-      <c r="X46" s="57"/>
-      <c r="Y46" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="31"/>
-      <c r="AB46" s="31"/>
-      <c r="AC46" s="31"/>
-      <c r="AD46" s="31"/>
-      <c r="AE46" s="31"/>
-      <c r="AF46" s="31"/>
-      <c r="AG46" s="31"/>
-      <c r="AH46" s="31"/>
-      <c r="AI46" s="31"/>
-      <c r="AJ46" s="31"/>
-      <c r="AK46" s="30"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="W46" s="35"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z46" s="26"/>
+      <c r="AA46" s="26"/>
+      <c r="AB46" s="26"/>
+      <c r="AC46" s="26"/>
+      <c r="AD46" s="26"/>
+      <c r="AE46" s="26"/>
+      <c r="AF46" s="26"/>
+      <c r="AG46" s="26"/>
+      <c r="AH46" s="26"/>
+      <c r="AI46" s="26"/>
+      <c r="AJ46" s="26"/>
+      <c r="AK46" s="27"/>
       <c r="AL46" s="24"/>
       <c r="AM46" s="24"/>
       <c r="AN46" s="24"/>
@@ -7096,61 +7090,61 @@
       <c r="AQ46" s="24"/>
     </row>
     <row r="47" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A47" s="29">
+      <c r="A47" s="25">
         <v>5</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="29" t="s">
+      <c r="B47" s="27"/>
+      <c r="C47" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="30"/>
-      <c r="O47" s="29">
+      <c r="N47" s="27"/>
+      <c r="O47" s="25">
         <v>16</v>
       </c>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="32" t="s">
+      <c r="P47" s="27"/>
+      <c r="Q47" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="32"/>
-      <c r="S47" s="29" t="s">
+      <c r="R47" s="41"/>
+      <c r="S47" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T47" s="31"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="29" t="s">
+      <c r="T47" s="26"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="W47" s="31"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="31"/>
-      <c r="AC47" s="31"/>
-      <c r="AD47" s="31"/>
-      <c r="AE47" s="31"/>
-      <c r="AF47" s="31"/>
-      <c r="AG47" s="31"/>
-      <c r="AH47" s="31"/>
-      <c r="AI47" s="31"/>
-      <c r="AJ47" s="31"/>
-      <c r="AK47" s="30"/>
+      <c r="W47" s="26"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z47" s="26"/>
+      <c r="AA47" s="26"/>
+      <c r="AB47" s="26"/>
+      <c r="AC47" s="26"/>
+      <c r="AD47" s="26"/>
+      <c r="AE47" s="26"/>
+      <c r="AF47" s="26"/>
+      <c r="AG47" s="26"/>
+      <c r="AH47" s="26"/>
+      <c r="AI47" s="26"/>
+      <c r="AJ47" s="26"/>
+      <c r="AK47" s="27"/>
       <c r="AL47" s="24"/>
       <c r="AM47" s="24"/>
       <c r="AN47" s="24"/>
@@ -7159,61 +7153,61 @@
       <c r="AQ47" s="24"/>
     </row>
     <row r="48" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A48" s="29">
+      <c r="A48" s="25">
         <v>6</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="29" t="s">
+      <c r="B48" s="27"/>
+      <c r="C48" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N48" s="30"/>
-      <c r="O48" s="29">
+      <c r="N48" s="27"/>
+      <c r="O48" s="25">
         <v>16</v>
       </c>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="32" t="s">
+      <c r="P48" s="27"/>
+      <c r="Q48" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R48" s="32"/>
-      <c r="S48" s="29" t="s">
+      <c r="R48" s="41"/>
+      <c r="S48" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T48" s="31"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="W48" s="31"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z48" s="31"/>
-      <c r="AA48" s="31"/>
-      <c r="AB48" s="31"/>
-      <c r="AC48" s="31"/>
-      <c r="AD48" s="31"/>
-      <c r="AE48" s="31"/>
-      <c r="AF48" s="31"/>
-      <c r="AG48" s="31"/>
-      <c r="AH48" s="31"/>
-      <c r="AI48" s="31"/>
-      <c r="AJ48" s="31"/>
-      <c r="AK48" s="30"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="W48" s="26"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z48" s="26"/>
+      <c r="AA48" s="26"/>
+      <c r="AB48" s="26"/>
+      <c r="AC48" s="26"/>
+      <c r="AD48" s="26"/>
+      <c r="AE48" s="26"/>
+      <c r="AF48" s="26"/>
+      <c r="AG48" s="26"/>
+      <c r="AH48" s="26"/>
+      <c r="AI48" s="26"/>
+      <c r="AJ48" s="26"/>
+      <c r="AK48" s="27"/>
       <c r="AL48" s="24"/>
       <c r="AM48" s="24"/>
       <c r="AN48" s="24"/>
@@ -7222,61 +7216,61 @@
       <c r="AQ48" s="24"/>
     </row>
     <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="32">
+      <c r="A49" s="41">
         <v>7</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32" t="s">
+      <c r="B49" s="41"/>
+      <c r="C49" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="32"/>
-      <c r="O49" s="53">
+      <c r="N49" s="41"/>
+      <c r="O49" s="42">
         <v>16</v>
       </c>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="32" t="s">
+      <c r="P49" s="43"/>
+      <c r="Q49" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R49" s="32"/>
-      <c r="S49" s="29" t="s">
+      <c r="R49" s="41"/>
+      <c r="S49" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T49" s="31"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="29" t="s">
+      <c r="T49" s="26"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="W49" s="26"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="W49" s="31"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z49" s="31"/>
-      <c r="AA49" s="31"/>
-      <c r="AB49" s="31"/>
-      <c r="AC49" s="31"/>
-      <c r="AD49" s="31"/>
-      <c r="AE49" s="31"/>
-      <c r="AF49" s="31"/>
-      <c r="AG49" s="31"/>
-      <c r="AH49" s="31"/>
-      <c r="AI49" s="31"/>
-      <c r="AJ49" s="31"/>
-      <c r="AK49" s="30"/>
+      <c r="Z49" s="26"/>
+      <c r="AA49" s="26"/>
+      <c r="AB49" s="26"/>
+      <c r="AC49" s="26"/>
+      <c r="AD49" s="26"/>
+      <c r="AE49" s="26"/>
+      <c r="AF49" s="26"/>
+      <c r="AG49" s="26"/>
+      <c r="AH49" s="26"/>
+      <c r="AI49" s="26"/>
+      <c r="AJ49" s="26"/>
+      <c r="AK49" s="27"/>
       <c r="AL49" s="24"/>
       <c r="AM49" s="24"/>
       <c r="AN49" s="24"/>
@@ -7285,61 +7279,61 @@
       <c r="AQ49" s="24"/>
     </row>
     <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="32">
+      <c r="A50" s="41">
         <v>8</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32" t="s">
+      <c r="B50" s="41"/>
+      <c r="C50" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="N50" s="32"/>
-      <c r="O50" s="53">
+      <c r="N50" s="41"/>
+      <c r="O50" s="42">
         <v>16</v>
       </c>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="32" t="s">
+      <c r="P50" s="43"/>
+      <c r="Q50" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R50" s="32"/>
-      <c r="S50" s="29" t="s">
+      <c r="R50" s="41"/>
+      <c r="S50" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T50" s="31"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="W50" s="31"/>
-      <c r="X50" s="30"/>
-      <c r="Y50" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z50" s="31"/>
-      <c r="AA50" s="31"/>
-      <c r="AB50" s="31"/>
-      <c r="AC50" s="31"/>
-      <c r="AD50" s="31"/>
-      <c r="AE50" s="31"/>
-      <c r="AF50" s="31"/>
-      <c r="AG50" s="31"/>
-      <c r="AH50" s="31"/>
-      <c r="AI50" s="31"/>
-      <c r="AJ50" s="31"/>
-      <c r="AK50" s="30"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="W50" s="26"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z50" s="26"/>
+      <c r="AA50" s="26"/>
+      <c r="AB50" s="26"/>
+      <c r="AC50" s="26"/>
+      <c r="AD50" s="26"/>
+      <c r="AE50" s="26"/>
+      <c r="AF50" s="26"/>
+      <c r="AG50" s="26"/>
+      <c r="AH50" s="26"/>
+      <c r="AI50" s="26"/>
+      <c r="AJ50" s="26"/>
+      <c r="AK50" s="27"/>
       <c r="AL50" s="24"/>
       <c r="AM50" s="24"/>
       <c r="AN50" s="24"/>
@@ -7348,61 +7342,61 @@
       <c r="AQ50" s="24"/>
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A51" s="32">
+      <c r="A51" s="41">
         <v>9</v>
       </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32" t="s">
+      <c r="B51" s="41"/>
+      <c r="C51" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32" t="s">
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="N51" s="41"/>
+      <c r="O51" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32" t="s">
+      <c r="P51" s="27"/>
+      <c r="Q51" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="N51" s="32"/>
-      <c r="O51" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="32" t="s">
+      <c r="R51" s="41"/>
+      <c r="S51" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R51" s="32"/>
-      <c r="S51" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="T51" s="31"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="W51" s="56"/>
-      <c r="X51" s="57"/>
-      <c r="Y51" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z51" s="31"/>
-      <c r="AA51" s="31"/>
-      <c r="AB51" s="31"/>
-      <c r="AC51" s="31"/>
-      <c r="AD51" s="31"/>
-      <c r="AE51" s="31"/>
-      <c r="AF51" s="31"/>
-      <c r="AG51" s="31"/>
-      <c r="AH51" s="31"/>
-      <c r="AI51" s="31"/>
-      <c r="AJ51" s="31"/>
-      <c r="AK51" s="30"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="W51" s="35"/>
+      <c r="X51" s="36"/>
+      <c r="Y51" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z51" s="26"/>
+      <c r="AA51" s="26"/>
+      <c r="AB51" s="26"/>
+      <c r="AC51" s="26"/>
+      <c r="AD51" s="26"/>
+      <c r="AE51" s="26"/>
+      <c r="AF51" s="26"/>
+      <c r="AG51" s="26"/>
+      <c r="AH51" s="26"/>
+      <c r="AI51" s="26"/>
+      <c r="AJ51" s="26"/>
+      <c r="AK51" s="27"/>
       <c r="AL51" s="24"/>
       <c r="AM51" s="24"/>
       <c r="AN51" s="24"/>
@@ -7411,329 +7405,214 @@
       <c r="AQ51" s="24"/>
     </row>
     <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="58"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="58"/>
-      <c r="P52" s="59"/>
-      <c r="Q52" s="61"/>
-      <c r="R52" s="61"/>
-      <c r="S52" s="58"/>
-      <c r="T52" s="60"/>
-      <c r="U52" s="60"/>
-      <c r="V52" s="61"/>
-      <c r="W52" s="61"/>
-      <c r="X52" s="61"/>
-      <c r="Y52" s="58"/>
-      <c r="Z52" s="60"/>
-      <c r="AA52" s="60"/>
-      <c r="AB52" s="60"/>
-      <c r="AC52" s="60"/>
-      <c r="AD52" s="60"/>
-      <c r="AE52" s="60"/>
-      <c r="AF52" s="60"/>
-      <c r="AG52" s="60"/>
-      <c r="AH52" s="60"/>
-      <c r="AI52" s="60"/>
-      <c r="AJ52" s="60"/>
-      <c r="AK52" s="59"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="40"/>
+      <c r="X52" s="40"/>
+      <c r="Y52" s="37"/>
+      <c r="Z52" s="39"/>
+      <c r="AA52" s="39"/>
+      <c r="AB52" s="39"/>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="39"/>
+      <c r="AE52" s="39"/>
+      <c r="AF52" s="39"/>
+      <c r="AG52" s="39"/>
+      <c r="AH52" s="39"/>
+      <c r="AI52" s="39"/>
+      <c r="AJ52" s="39"/>
+      <c r="AK52" s="38"/>
     </row>
     <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="58"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="59"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="58"/>
-      <c r="R53" s="59"/>
-      <c r="S53" s="58"/>
-      <c r="T53" s="60"/>
-      <c r="U53" s="60"/>
-      <c r="V53" s="61"/>
-      <c r="W53" s="61"/>
-      <c r="X53" s="61"/>
-      <c r="Y53" s="58"/>
-      <c r="Z53" s="60"/>
-      <c r="AA53" s="60"/>
-      <c r="AB53" s="60"/>
-      <c r="AC53" s="60"/>
-      <c r="AD53" s="60"/>
-      <c r="AE53" s="60"/>
-      <c r="AF53" s="60"/>
-      <c r="AG53" s="60"/>
-      <c r="AH53" s="60"/>
-      <c r="AI53" s="60"/>
-      <c r="AJ53" s="60"/>
-      <c r="AK53" s="59"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="40"/>
+      <c r="X53" s="40"/>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="39"/>
+      <c r="AA53" s="39"/>
+      <c r="AB53" s="39"/>
+      <c r="AC53" s="39"/>
+      <c r="AD53" s="39"/>
+      <c r="AE53" s="39"/>
+      <c r="AF53" s="39"/>
+      <c r="AG53" s="39"/>
+      <c r="AH53" s="39"/>
+      <c r="AI53" s="39"/>
+      <c r="AJ53" s="39"/>
+      <c r="AK53" s="38"/>
     </row>
     <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="58"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="58"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="58"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="61"/>
-      <c r="R54" s="61"/>
-      <c r="S54" s="58"/>
-      <c r="T54" s="60"/>
-      <c r="U54" s="60"/>
-      <c r="V54" s="61"/>
-      <c r="W54" s="61"/>
-      <c r="X54" s="61"/>
-      <c r="Y54" s="58"/>
-      <c r="Z54" s="60"/>
-      <c r="AA54" s="60"/>
-      <c r="AB54" s="60"/>
-      <c r="AC54" s="60"/>
-      <c r="AD54" s="60"/>
-      <c r="AE54" s="60"/>
-      <c r="AF54" s="60"/>
-      <c r="AG54" s="60"/>
-      <c r="AH54" s="60"/>
-      <c r="AI54" s="60"/>
-      <c r="AJ54" s="60"/>
-      <c r="AK54" s="59"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="37"/>
+      <c r="Z54" s="39"/>
+      <c r="AA54" s="39"/>
+      <c r="AB54" s="39"/>
+      <c r="AC54" s="39"/>
+      <c r="AD54" s="39"/>
+      <c r="AE54" s="39"/>
+      <c r="AF54" s="39"/>
+      <c r="AG54" s="39"/>
+      <c r="AH54" s="39"/>
+      <c r="AI54" s="39"/>
+      <c r="AJ54" s="39"/>
+      <c r="AK54" s="38"/>
     </row>
     <row r="55" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A55" s="58"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="58"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="58"/>
-      <c r="R55" s="59"/>
-      <c r="S55" s="58"/>
-      <c r="T55" s="60"/>
-      <c r="U55" s="60"/>
-      <c r="V55" s="61"/>
-      <c r="W55" s="61"/>
-      <c r="X55" s="61"/>
-      <c r="Y55" s="58"/>
-      <c r="Z55" s="60"/>
-      <c r="AA55" s="60"/>
-      <c r="AB55" s="60"/>
-      <c r="AC55" s="60"/>
-      <c r="AD55" s="60"/>
-      <c r="AE55" s="60"/>
-      <c r="AF55" s="60"/>
-      <c r="AG55" s="60"/>
-      <c r="AH55" s="60"/>
-      <c r="AI55" s="60"/>
-      <c r="AJ55" s="60"/>
-      <c r="AK55" s="59"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="37"/>
+      <c r="Z55" s="39"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="39"/>
+      <c r="AF55" s="39"/>
+      <c r="AG55" s="39"/>
+      <c r="AH55" s="39"/>
+      <c r="AI55" s="39"/>
+      <c r="AJ55" s="39"/>
+      <c r="AK55" s="38"/>
     </row>
     <row r="56" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A56" s="58"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="58"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="58"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="58"/>
-      <c r="R56" s="59"/>
-      <c r="S56" s="58"/>
-      <c r="T56" s="60"/>
-      <c r="U56" s="60"/>
-      <c r="V56" s="61"/>
-      <c r="W56" s="61"/>
-      <c r="X56" s="61"/>
-      <c r="Y56" s="58"/>
-      <c r="Z56" s="60"/>
-      <c r="AA56" s="60"/>
-      <c r="AB56" s="60"/>
-      <c r="AC56" s="60"/>
-      <c r="AD56" s="60"/>
-      <c r="AE56" s="60"/>
-      <c r="AF56" s="60"/>
-      <c r="AG56" s="60"/>
-      <c r="AH56" s="60"/>
-      <c r="AI56" s="60"/>
-      <c r="AJ56" s="60"/>
-      <c r="AK56" s="59"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="40"/>
+      <c r="X56" s="40"/>
+      <c r="Y56" s="37"/>
+      <c r="Z56" s="39"/>
+      <c r="AA56" s="39"/>
+      <c r="AB56" s="39"/>
+      <c r="AC56" s="39"/>
+      <c r="AD56" s="39"/>
+      <c r="AE56" s="39"/>
+      <c r="AF56" s="39"/>
+      <c r="AG56" s="39"/>
+      <c r="AH56" s="39"/>
+      <c r="AI56" s="39"/>
+      <c r="AJ56" s="39"/>
+      <c r="AK56" s="38"/>
     </row>
     <row r="59" spans="1:43" ht="12.75" customHeight="1">
       <c r="B59" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="Y46:AK46"/>
-    <mergeCell ref="Y51:AK51"/>
-    <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="Y49:AK49"/>
-    <mergeCell ref="Y48:AK48"/>
-    <mergeCell ref="Y47:AK47"/>
-    <mergeCell ref="Y41:AK42"/>
-    <mergeCell ref="Y45:AK45"/>
-    <mergeCell ref="Y44:AK44"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="S41:U42"/>
-    <mergeCell ref="V41:X42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AK56"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AK55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AK54"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AK53"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AK52"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:H43"/>
     <mergeCell ref="I43:L43"/>
@@ -7754,15 +7633,130 @@
     <mergeCell ref="Z4:AB5"/>
     <mergeCell ref="AC4:AE5"/>
     <mergeCell ref="Y43:AK43"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AK52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AK53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AK54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AK56"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="S41:U42"/>
+    <mergeCell ref="V41:X42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y46:AK46"/>
+    <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="Y50:AK50"/>
+    <mergeCell ref="Y49:AK49"/>
+    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="Y47:AK47"/>
+    <mergeCell ref="Y41:AK42"/>
+    <mergeCell ref="Y45:AK45"/>
+    <mergeCell ref="Y44:AK44"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/設計書/画面レイアウト/掲示板画面.xlsx
+++ b/設計書/画面レイアウト/掲示板画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makam\Desktop\nuko\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915C12E5-9218-4268-8544-CF89AD9A8242}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF714D37-1665-4F43-9B7A-A6202472C69E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="795" windowWidth="13350" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="掲示板" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -203,6 +203,16 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>9月6日</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>栗山</t>
     <rPh sb="0" eb="2">
       <t>クリヤマ</t>
@@ -245,10 +255,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ジャンル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>投稿時間</t>
     <rPh sb="0" eb="2">
       <t>トウコウ</t>
@@ -260,10 +266,6 @@
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ニックネーム</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -507,10 +509,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>‐</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>掲示板内に一致するワードがあるか画面を更新するボタン</t>
     <rPh sb="0" eb="3">
       <t>ケイジバン</t>
@@ -526,22 +524,6 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>文字表示制限：10000文字</t>
-    <rPh sb="0" eb="2">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -642,7 +624,26 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2019/9/6</t>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリー</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2016,7 +2017,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -2034,7 +2035,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1514475" y="3552825"/>
-          <a:ext cx="809625" cy="285750"/>
+          <a:ext cx="933450" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2063,7 +2064,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ジャンル</a:t>
+            <a:t>カテゴリー</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2395,7 +2396,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
-            <a:t>ニックネーム</a:t>
+            <a:t>名前</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2944,15 +2945,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2967,8 +2968,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1466851" y="3476625"/>
-          <a:ext cx="933450" cy="419100"/>
+          <a:off x="1466850" y="3505199"/>
+          <a:ext cx="1009649" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3329,15 +3330,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>114101</xdr:rowOff>
+      <xdr:rowOff>85526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3352,7 +3353,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2419350" y="3657600"/>
+          <a:off x="2505075" y="3629025"/>
           <a:ext cx="142875" cy="56951"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3886,16 +3887,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>10992</xdr:colOff>
+      <xdr:colOff>68142</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>148055</xdr:rowOff>
+      <xdr:rowOff>109955</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3910,7 +3911,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2505075" y="3495675"/>
+          <a:off x="2562225" y="3457575"/>
           <a:ext cx="334842" cy="252830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4822,6 +4823,9 @@
         <a:prstGeom prst="chevron">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5156,16 +5160,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FAF31-7FA1-4843-A935-57F7BF0F397F}">
   <dimension ref="A1:AQ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.08984375" style="18" customWidth="1"/>
-    <col min="7" max="33" width="4.08984375" style="1" customWidth="1"/>
-    <col min="34" max="37" width="4.08984375" style="19" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="18" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="1" customWidth="1"/>
+    <col min="34" max="37" width="4.125" style="19" customWidth="1"/>
     <col min="38" max="41" width="4" style="1" customWidth="1"/>
     <col min="42" max="16384" width="9" style="1"/>
   </cols>
@@ -5317,7 +5321,7 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
       <c r="I4" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="46"/>
       <c r="K4" s="46"/>
@@ -5340,12 +5344,12 @@
       <c r="X4" s="53"/>
       <c r="Y4" s="54"/>
       <c r="Z4" s="50" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="AA4" s="46"/>
       <c r="AB4" s="47"/>
       <c r="AC4" s="50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD4" s="46"/>
       <c r="AE4" s="47"/>
@@ -5542,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
@@ -5583,7 +5587,7 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
@@ -5665,7 +5669,7 @@
         <v>2</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
@@ -5706,7 +5710,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
@@ -5747,7 +5751,7 @@
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
@@ -6412,11 +6416,8 @@
       <c r="Q32" s="9"/>
       <c r="R32" s="10"/>
       <c r="S32" s="9"/>
-      <c r="U32" s="1" t="s">
+      <c r="AA32" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
@@ -6479,7 +6480,7 @@
         <v>3</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
@@ -6518,7 +6519,7 @@
       <c r="R35" s="10"/>
       <c r="S35" s="9"/>
       <c r="U35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
@@ -6599,7 +6600,7 @@
         <v>4</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
@@ -6640,7 +6641,7 @@
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -6843,7 +6844,7 @@
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
@@ -6851,13 +6852,13 @@
       <c r="G43" s="26"/>
       <c r="H43" s="27"/>
       <c r="I43" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J43" s="26"/>
       <c r="K43" s="26"/>
       <c r="L43" s="27"/>
       <c r="M43" s="25" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N43" s="27"/>
       <c r="O43" s="25">
@@ -6879,7 +6880,7 @@
       <c r="W43" s="26"/>
       <c r="X43" s="27"/>
       <c r="Y43" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z43" s="26"/>
       <c r="AA43" s="26"/>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
@@ -6914,7 +6915,7 @@
       <c r="G44" s="26"/>
       <c r="H44" s="27"/>
       <c r="I44" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J44" s="26"/>
       <c r="K44" s="26"/>
@@ -6937,12 +6938,12 @@
       <c r="T44" s="26"/>
       <c r="U44" s="27"/>
       <c r="V44" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W44" s="26"/>
       <c r="X44" s="27"/>
       <c r="Y44" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z44" s="26"/>
       <c r="AA44" s="26"/>
@@ -6969,7 +6970,7 @@
       </c>
       <c r="B45" s="27"/>
       <c r="C45" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
@@ -6977,13 +6978,13 @@
       <c r="G45" s="26"/>
       <c r="H45" s="27"/>
       <c r="I45" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
       <c r="L45" s="27"/>
       <c r="M45" s="25" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="N45" s="27"/>
       <c r="O45" s="25">
@@ -7005,7 +7006,7 @@
       <c r="W45" s="26"/>
       <c r="X45" s="27"/>
       <c r="Y45" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z45" s="26"/>
       <c r="AA45" s="26"/>
@@ -7032,7 +7033,7 @@
       </c>
       <c r="B46" s="27"/>
       <c r="C46" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
@@ -7040,13 +7041,13 @@
       <c r="G46" s="26"/>
       <c r="H46" s="27"/>
       <c r="I46" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J46" s="26"/>
       <c r="K46" s="26"/>
       <c r="L46" s="27"/>
       <c r="M46" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N46" s="27"/>
       <c r="O46" s="25" t="s">
@@ -7063,12 +7064,12 @@
       <c r="T46" s="26"/>
       <c r="U46" s="27"/>
       <c r="V46" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W46" s="35"/>
       <c r="X46" s="36"/>
       <c r="Y46" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z46" s="26"/>
       <c r="AA46" s="26"/>
@@ -7095,7 +7096,7 @@
       </c>
       <c r="B47" s="27"/>
       <c r="C47" s="25" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
@@ -7103,17 +7104,17 @@
       <c r="G47" s="26"/>
       <c r="H47" s="27"/>
       <c r="I47" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J47" s="26"/>
       <c r="K47" s="26"/>
       <c r="L47" s="27"/>
       <c r="M47" s="25" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="N47" s="27"/>
       <c r="O47" s="25">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="P47" s="27"/>
       <c r="Q47" s="41" t="s">
@@ -7131,7 +7132,7 @@
       <c r="W47" s="26"/>
       <c r="X47" s="27"/>
       <c r="Y47" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z47" s="26"/>
       <c r="AA47" s="26"/>
@@ -7166,17 +7167,17 @@
       <c r="G48" s="26"/>
       <c r="H48" s="27"/>
       <c r="I48" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J48" s="26"/>
       <c r="K48" s="26"/>
       <c r="L48" s="27"/>
       <c r="M48" s="25" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="N48" s="27"/>
-      <c r="O48" s="25">
-        <v>16</v>
+      <c r="O48" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="P48" s="27"/>
       <c r="Q48" s="41" t="s">
@@ -7189,12 +7190,12 @@
       <c r="T48" s="26"/>
       <c r="U48" s="27"/>
       <c r="V48" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W48" s="26"/>
       <c r="X48" s="27"/>
       <c r="Y48" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z48" s="26"/>
       <c r="AA48" s="26"/>
@@ -7229,17 +7230,17 @@
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
       <c r="I49" s="41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J49" s="41"/>
       <c r="K49" s="41"/>
       <c r="L49" s="41"/>
       <c r="M49" s="41" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="N49" s="41"/>
       <c r="O49" s="42">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="P49" s="43"/>
       <c r="Q49" s="41" t="s">
@@ -7252,12 +7253,12 @@
       <c r="T49" s="26"/>
       <c r="U49" s="27"/>
       <c r="V49" s="25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="W49" s="26"/>
       <c r="X49" s="27"/>
       <c r="Y49" s="25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Z49" s="26"/>
       <c r="AA49" s="26"/>
@@ -7284,7 +7285,7 @@
       </c>
       <c r="B50" s="41"/>
       <c r="C50" s="41" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
@@ -7292,17 +7293,17 @@
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
       <c r="I50" s="41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J50" s="41"/>
       <c r="K50" s="41"/>
       <c r="L50" s="41"/>
       <c r="M50" s="41" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="N50" s="41"/>
       <c r="O50" s="42">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="P50" s="43"/>
       <c r="Q50" s="41" t="s">
@@ -7315,12 +7316,12 @@
       <c r="T50" s="26"/>
       <c r="U50" s="27"/>
       <c r="V50" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W50" s="26"/>
       <c r="X50" s="27"/>
       <c r="Y50" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z50" s="26"/>
       <c r="AA50" s="26"/>
@@ -7347,7 +7348,7 @@
       </c>
       <c r="B51" s="41"/>
       <c r="C51" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" s="41"/>
       <c r="E51" s="41"/>
@@ -7355,7 +7356,7 @@
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
       <c r="I51" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J51" s="41"/>
       <c r="K51" s="41"/>
@@ -7365,7 +7366,7 @@
       </c>
       <c r="N51" s="41"/>
       <c r="O51" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P51" s="27"/>
       <c r="Q51" s="41" t="s">
@@ -7378,12 +7379,12 @@
       <c r="T51" s="26"/>
       <c r="U51" s="27"/>
       <c r="V51" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W51" s="35"/>
       <c r="X51" s="36"/>
       <c r="Y51" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z51" s="26"/>
       <c r="AA51" s="26"/>

--- a/設計書/画面レイアウト/掲示板画面.xlsx
+++ b/設計書/画面レイアウト/掲示板画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makam\Desktop\nuko\設計書\画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF714D37-1665-4F43-9B7A-A6202472C69E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EE01A5-CCC9-4120-AAAB-6E598DED0641}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="795" windowWidth="13350" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="掲示板" sheetId="12" r:id="rId1"/>
@@ -203,16 +203,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>9月6日</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>栗山</t>
     <rPh sb="0" eb="2">
       <t>クリヤマ</t>
@@ -644,6 +634,10 @@
   </si>
   <si>
     <t>カテゴリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/9/10</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -931,13 +925,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -956,36 +965,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1030,17 +1009,32 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5161,59 +5155,59 @@
   <dimension ref="A1:AQ59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="18" customWidth="1"/>
-    <col min="7" max="33" width="4.125" style="1" customWidth="1"/>
-    <col min="34" max="37" width="4.125" style="19" customWidth="1"/>
+    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.08984375" style="18" customWidth="1"/>
+    <col min="7" max="33" width="4.08984375" style="1" customWidth="1"/>
+    <col min="34" max="37" width="4.08984375" style="19" customWidth="1"/>
     <col min="38" max="41" width="4" style="1" customWidth="1"/>
     <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
     </row>
     <row r="2" spans="1:37" ht="6" customHeight="1">
       <c r="A2" s="2"/>
@@ -5255,153 +5249,153 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="12">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="59" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="59" t="s">
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="59" t="s">
+      <c r="Q3" s="27"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="59" t="s">
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="59" t="s">
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="59" t="s">
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="59" t="s">
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="61"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="28"/>
     </row>
     <row r="4" spans="1:37" ht="12" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="50" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="52" t="s">
+      <c r="Q4" s="41"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="50" t="s">
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="28" t="s">
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="28" t="s">
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="30"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="35"/>
     </row>
     <row r="5" spans="1:37" ht="12">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="33"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="38"/>
     </row>
     <row r="6" spans="1:37" ht="12">
       <c r="A6" s="3"/>
@@ -5546,7 +5540,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
@@ -5587,7 +5581,7 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
@@ -5669,7 +5663,7 @@
         <v>2</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
@@ -5710,7 +5704,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
@@ -5751,7 +5745,7 @@
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
@@ -6417,7 +6411,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="9"/>
       <c r="AA32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
@@ -6480,7 +6474,7 @@
         <v>3</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
@@ -6519,7 +6513,7 @@
       <c r="R35" s="10"/>
       <c r="S35" s="9"/>
       <c r="U35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
@@ -6591,8 +6585,8 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="10"/>
       <c r="S37" s="9"/>
@@ -6600,7 +6594,7 @@
         <v>4</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
@@ -6641,7 +6635,7 @@
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -6731,61 +6725,61 @@
       <c r="AK40" s="16"/>
     </row>
     <row r="41" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="28" t="s">
+      <c r="B41" s="35"/>
+      <c r="C41" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="28" t="s">
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="28" t="s">
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="N41" s="30"/>
-      <c r="O41" s="28" t="s">
+      <c r="N41" s="35"/>
+      <c r="O41" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="41" t="s">
+      <c r="P41" s="35"/>
+      <c r="Q41" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R41" s="41"/>
-      <c r="S41" s="28" t="s">
+      <c r="R41" s="32"/>
+      <c r="S41" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="T41" s="29"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="28" t="s">
+      <c r="T41" s="34"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="W41" s="29"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="28" t="s">
+      <c r="W41" s="34"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
-      <c r="AE41" s="29"/>
-      <c r="AF41" s="29"/>
-      <c r="AG41" s="29"/>
-      <c r="AH41" s="29"/>
-      <c r="AI41" s="29"/>
-      <c r="AJ41" s="29"/>
-      <c r="AK41" s="30"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="34"/>
+      <c r="AD41" s="34"/>
+      <c r="AE41" s="34"/>
+      <c r="AF41" s="34"/>
+      <c r="AG41" s="34"/>
+      <c r="AH41" s="34"/>
+      <c r="AI41" s="34"/>
+      <c r="AJ41" s="34"/>
+      <c r="AK41" s="35"/>
       <c r="AL41" s="24"/>
       <c r="AM41" s="24"/>
       <c r="AN41" s="24"/>
@@ -6794,43 +6788,43 @@
       <c r="AQ41" s="24"/>
     </row>
     <row r="42" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A42" s="31"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="31"/>
-      <c r="W42" s="32"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="32"/>
-      <c r="AA42" s="32"/>
-      <c r="AB42" s="32"/>
-      <c r="AC42" s="32"/>
-      <c r="AD42" s="32"/>
-      <c r="AE42" s="32"/>
-      <c r="AF42" s="32"/>
-      <c r="AG42" s="32"/>
-      <c r="AH42" s="32"/>
-      <c r="AI42" s="32"/>
-      <c r="AJ42" s="32"/>
-      <c r="AK42" s="33"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="37"/>
+      <c r="AB42" s="37"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="37"/>
+      <c r="AF42" s="37"/>
+      <c r="AG42" s="37"/>
+      <c r="AH42" s="37"/>
+      <c r="AI42" s="37"/>
+      <c r="AJ42" s="37"/>
+      <c r="AK42" s="38"/>
       <c r="AL42" s="24"/>
       <c r="AM42" s="24"/>
       <c r="AN42" s="24"/>
@@ -6839,61 +6833,61 @@
       <c r="AQ42" s="24"/>
     </row>
     <row r="43" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A43" s="25">
+      <c r="A43" s="29">
         <v>1</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="25" t="s">
+      <c r="B43" s="30"/>
+      <c r="C43" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="N43" s="27"/>
-      <c r="O43" s="25">
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="N43" s="30"/>
+      <c r="O43" s="29">
         <v>128</v>
       </c>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="41" t="s">
+      <c r="P43" s="30"/>
+      <c r="Q43" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="41"/>
-      <c r="S43" s="25" t="s">
+      <c r="R43" s="32"/>
+      <c r="S43" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T43" s="26"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="25" t="s">
+      <c r="T43" s="31"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="W43" s="26"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z43" s="26"/>
-      <c r="AA43" s="26"/>
-      <c r="AB43" s="26"/>
-      <c r="AC43" s="26"/>
-      <c r="AD43" s="26"/>
-      <c r="AE43" s="26"/>
-      <c r="AF43" s="26"/>
-      <c r="AG43" s="26"/>
-      <c r="AH43" s="26"/>
-      <c r="AI43" s="26"/>
-      <c r="AJ43" s="26"/>
-      <c r="AK43" s="27"/>
+      <c r="W43" s="31"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z43" s="56"/>
+      <c r="AA43" s="56"/>
+      <c r="AB43" s="56"/>
+      <c r="AC43" s="56"/>
+      <c r="AD43" s="56"/>
+      <c r="AE43" s="56"/>
+      <c r="AF43" s="56"/>
+      <c r="AG43" s="56"/>
+      <c r="AH43" s="56"/>
+      <c r="AI43" s="56"/>
+      <c r="AJ43" s="56"/>
+      <c r="AK43" s="57"/>
       <c r="AL43" s="24"/>
       <c r="AM43" s="24"/>
       <c r="AN43" s="24"/>
@@ -6902,61 +6896,61 @@
       <c r="AQ43" s="24"/>
     </row>
     <row r="44" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A44" s="25">
+      <c r="A44" s="29">
         <v>2</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="25" t="s">
+      <c r="B44" s="30"/>
+      <c r="C44" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="27"/>
-      <c r="O44" s="25" t="s">
+      <c r="N44" s="30"/>
+      <c r="O44" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="41" t="s">
+      <c r="P44" s="30"/>
+      <c r="Q44" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="41"/>
-      <c r="S44" s="25" t="s">
+      <c r="R44" s="32"/>
+      <c r="S44" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T44" s="26"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="W44" s="26"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="26"/>
-      <c r="AB44" s="26"/>
-      <c r="AC44" s="26"/>
-      <c r="AD44" s="26"/>
-      <c r="AE44" s="26"/>
-      <c r="AF44" s="26"/>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="26"/>
-      <c r="AI44" s="26"/>
-      <c r="AJ44" s="26"/>
-      <c r="AK44" s="27"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="W44" s="31"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z44" s="56"/>
+      <c r="AA44" s="56"/>
+      <c r="AB44" s="56"/>
+      <c r="AC44" s="56"/>
+      <c r="AD44" s="56"/>
+      <c r="AE44" s="56"/>
+      <c r="AF44" s="56"/>
+      <c r="AG44" s="56"/>
+      <c r="AH44" s="56"/>
+      <c r="AI44" s="56"/>
+      <c r="AJ44" s="56"/>
+      <c r="AK44" s="57"/>
       <c r="AL44" s="24"/>
       <c r="AM44" s="24"/>
       <c r="AN44" s="24"/>
@@ -6965,61 +6959,61 @@
       <c r="AQ44" s="24"/>
     </row>
     <row r="45" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A45" s="25">
+      <c r="A45" s="29">
         <v>3</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="N45" s="27"/>
-      <c r="O45" s="25">
+      <c r="B45" s="30"/>
+      <c r="C45" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="N45" s="30"/>
+      <c r="O45" s="29">
         <v>256</v>
       </c>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="41" t="s">
+      <c r="P45" s="30"/>
+      <c r="Q45" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R45" s="41"/>
-      <c r="S45" s="25" t="s">
+      <c r="R45" s="32"/>
+      <c r="S45" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T45" s="26"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="25" t="s">
+      <c r="T45" s="31"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="W45" s="26"/>
-      <c r="X45" s="27"/>
-      <c r="Y45" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="26"/>
-      <c r="AD45" s="26"/>
-      <c r="AE45" s="26"/>
-      <c r="AF45" s="26"/>
-      <c r="AG45" s="26"/>
-      <c r="AH45" s="26"/>
-      <c r="AI45" s="26"/>
-      <c r="AJ45" s="26"/>
-      <c r="AK45" s="27"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z45" s="56"/>
+      <c r="AA45" s="56"/>
+      <c r="AB45" s="56"/>
+      <c r="AC45" s="56"/>
+      <c r="AD45" s="56"/>
+      <c r="AE45" s="56"/>
+      <c r="AF45" s="56"/>
+      <c r="AG45" s="56"/>
+      <c r="AH45" s="56"/>
+      <c r="AI45" s="56"/>
+      <c r="AJ45" s="56"/>
+      <c r="AK45" s="57"/>
       <c r="AL45" s="24"/>
       <c r="AM45" s="24"/>
       <c r="AN45" s="24"/>
@@ -7028,61 +7022,61 @@
       <c r="AQ45" s="24"/>
     </row>
     <row r="46" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A46" s="25">
+      <c r="A46" s="29">
         <v>4</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="25" t="s">
+      <c r="B46" s="30"/>
+      <c r="C46" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="N46" s="27"/>
-      <c r="O46" s="25" t="s">
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N46" s="30"/>
+      <c r="O46" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="25" t="s">
+      <c r="P46" s="30"/>
+      <c r="Q46" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="R46" s="27"/>
-      <c r="S46" s="25" t="s">
+      <c r="R46" s="30"/>
+      <c r="S46" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T46" s="26"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="W46" s="35"/>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z46" s="26"/>
-      <c r="AA46" s="26"/>
-      <c r="AB46" s="26"/>
-      <c r="AC46" s="26"/>
-      <c r="AD46" s="26"/>
-      <c r="AE46" s="26"/>
-      <c r="AF46" s="26"/>
-      <c r="AG46" s="26"/>
-      <c r="AH46" s="26"/>
-      <c r="AI46" s="26"/>
-      <c r="AJ46" s="26"/>
-      <c r="AK46" s="27"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="W46" s="56"/>
+      <c r="X46" s="57"/>
+      <c r="Y46" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z46" s="56"/>
+      <c r="AA46" s="56"/>
+      <c r="AB46" s="56"/>
+      <c r="AC46" s="56"/>
+      <c r="AD46" s="56"/>
+      <c r="AE46" s="56"/>
+      <c r="AF46" s="56"/>
+      <c r="AG46" s="56"/>
+      <c r="AH46" s="56"/>
+      <c r="AI46" s="56"/>
+      <c r="AJ46" s="56"/>
+      <c r="AK46" s="57"/>
       <c r="AL46" s="24"/>
       <c r="AM46" s="24"/>
       <c r="AN46" s="24"/>
@@ -7091,61 +7085,61 @@
       <c r="AQ46" s="24"/>
     </row>
     <row r="47" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A47" s="25">
+      <c r="A47" s="29">
         <v>5</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="N47" s="27"/>
-      <c r="O47" s="25">
+      <c r="B47" s="30"/>
+      <c r="C47" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="N47" s="30"/>
+      <c r="O47" s="29">
         <v>128</v>
       </c>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="41" t="s">
+      <c r="P47" s="30"/>
+      <c r="Q47" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="41"/>
-      <c r="S47" s="25" t="s">
+      <c r="R47" s="32"/>
+      <c r="S47" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T47" s="26"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="25" t="s">
+      <c r="T47" s="31"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="W47" s="26"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z47" s="26"/>
-      <c r="AA47" s="26"/>
-      <c r="AB47" s="26"/>
-      <c r="AC47" s="26"/>
-      <c r="AD47" s="26"/>
-      <c r="AE47" s="26"/>
-      <c r="AF47" s="26"/>
-      <c r="AG47" s="26"/>
-      <c r="AH47" s="26"/>
-      <c r="AI47" s="26"/>
-      <c r="AJ47" s="26"/>
-      <c r="AK47" s="27"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z47" s="56"/>
+      <c r="AA47" s="56"/>
+      <c r="AB47" s="56"/>
+      <c r="AC47" s="56"/>
+      <c r="AD47" s="56"/>
+      <c r="AE47" s="56"/>
+      <c r="AF47" s="56"/>
+      <c r="AG47" s="56"/>
+      <c r="AH47" s="56"/>
+      <c r="AI47" s="56"/>
+      <c r="AJ47" s="56"/>
+      <c r="AK47" s="57"/>
       <c r="AL47" s="24"/>
       <c r="AM47" s="24"/>
       <c r="AN47" s="24"/>
@@ -7154,61 +7148,61 @@
       <c r="AQ47" s="24"/>
     </row>
     <row r="48" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A48" s="25">
+      <c r="A48" s="29">
         <v>6</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="25" t="s">
+      <c r="B48" s="30"/>
+      <c r="C48" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="N48" s="30"/>
+      <c r="O48" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="N48" s="27"/>
-      <c r="O48" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="41" t="s">
+      <c r="P48" s="30"/>
+      <c r="Q48" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R48" s="41"/>
-      <c r="S48" s="25" t="s">
+      <c r="R48" s="32"/>
+      <c r="S48" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T48" s="26"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="W48" s="26"/>
-      <c r="X48" s="27"/>
-      <c r="Y48" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z48" s="26"/>
-      <c r="AA48" s="26"/>
-      <c r="AB48" s="26"/>
-      <c r="AC48" s="26"/>
-      <c r="AD48" s="26"/>
-      <c r="AE48" s="26"/>
-      <c r="AF48" s="26"/>
-      <c r="AG48" s="26"/>
-      <c r="AH48" s="26"/>
-      <c r="AI48" s="26"/>
-      <c r="AJ48" s="26"/>
-      <c r="AK48" s="27"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="W48" s="31"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="56"/>
+      <c r="AC48" s="56"/>
+      <c r="AD48" s="56"/>
+      <c r="AE48" s="56"/>
+      <c r="AF48" s="56"/>
+      <c r="AG48" s="56"/>
+      <c r="AH48" s="56"/>
+      <c r="AI48" s="56"/>
+      <c r="AJ48" s="56"/>
+      <c r="AK48" s="57"/>
       <c r="AL48" s="24"/>
       <c r="AM48" s="24"/>
       <c r="AN48" s="24"/>
@@ -7217,61 +7211,61 @@
       <c r="AQ48" s="24"/>
     </row>
     <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="41">
+      <c r="A49" s="32">
         <v>7</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="N49" s="41"/>
-      <c r="O49" s="42">
+      <c r="B49" s="32"/>
+      <c r="C49" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="N49" s="32"/>
+      <c r="O49" s="53">
         <v>128</v>
       </c>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="41" t="s">
+      <c r="P49" s="54"/>
+      <c r="Q49" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R49" s="41"/>
-      <c r="S49" s="25" t="s">
+      <c r="R49" s="32"/>
+      <c r="S49" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T49" s="26"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="25" t="s">
+      <c r="T49" s="31"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="W49" s="31"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="W49" s="26"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z49" s="26"/>
-      <c r="AA49" s="26"/>
-      <c r="AB49" s="26"/>
-      <c r="AC49" s="26"/>
-      <c r="AD49" s="26"/>
-      <c r="AE49" s="26"/>
-      <c r="AF49" s="26"/>
-      <c r="AG49" s="26"/>
-      <c r="AH49" s="26"/>
-      <c r="AI49" s="26"/>
-      <c r="AJ49" s="26"/>
-      <c r="AK49" s="27"/>
+      <c r="Z49" s="56"/>
+      <c r="AA49" s="56"/>
+      <c r="AB49" s="56"/>
+      <c r="AC49" s="56"/>
+      <c r="AD49" s="56"/>
+      <c r="AE49" s="56"/>
+      <c r="AF49" s="56"/>
+      <c r="AG49" s="56"/>
+      <c r="AH49" s="56"/>
+      <c r="AI49" s="56"/>
+      <c r="AJ49" s="56"/>
+      <c r="AK49" s="57"/>
       <c r="AL49" s="24"/>
       <c r="AM49" s="24"/>
       <c r="AN49" s="24"/>
@@ -7280,61 +7274,61 @@
       <c r="AQ49" s="24"/>
     </row>
     <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="41">
+      <c r="A50" s="32">
         <v>8</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41" t="s">
+      <c r="B50" s="32"/>
+      <c r="C50" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="N50" s="41"/>
-      <c r="O50" s="42">
+      <c r="N50" s="32"/>
+      <c r="O50" s="53">
         <v>128</v>
       </c>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="41" t="s">
+      <c r="P50" s="54"/>
+      <c r="Q50" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R50" s="41"/>
-      <c r="S50" s="25" t="s">
+      <c r="R50" s="32"/>
+      <c r="S50" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T50" s="26"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="W50" s="26"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z50" s="26"/>
-      <c r="AA50" s="26"/>
-      <c r="AB50" s="26"/>
-      <c r="AC50" s="26"/>
-      <c r="AD50" s="26"/>
-      <c r="AE50" s="26"/>
-      <c r="AF50" s="26"/>
-      <c r="AG50" s="26"/>
-      <c r="AH50" s="26"/>
-      <c r="AI50" s="26"/>
-      <c r="AJ50" s="26"/>
-      <c r="AK50" s="27"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="30"/>
+      <c r="V50" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="W50" s="31"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z50" s="56"/>
+      <c r="AA50" s="56"/>
+      <c r="AB50" s="56"/>
+      <c r="AC50" s="56"/>
+      <c r="AD50" s="56"/>
+      <c r="AE50" s="56"/>
+      <c r="AF50" s="56"/>
+      <c r="AG50" s="56"/>
+      <c r="AH50" s="56"/>
+      <c r="AI50" s="56"/>
+      <c r="AJ50" s="56"/>
+      <c r="AK50" s="57"/>
       <c r="AL50" s="24"/>
       <c r="AM50" s="24"/>
       <c r="AN50" s="24"/>
@@ -7343,61 +7337,61 @@
       <c r="AQ50" s="24"/>
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A51" s="41">
+      <c r="A51" s="32">
         <v>9</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41" t="s">
+      <c r="B51" s="32"/>
+      <c r="C51" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41" t="s">
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N51" s="32"/>
+      <c r="O51" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41" t="s">
+      <c r="P51" s="30"/>
+      <c r="Q51" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N51" s="41"/>
-      <c r="O51" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="41" t="s">
+      <c r="R51" s="32"/>
+      <c r="S51" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="R51" s="41"/>
-      <c r="S51" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="T51" s="26"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="W51" s="35"/>
-      <c r="X51" s="36"/>
-      <c r="Y51" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z51" s="26"/>
-      <c r="AA51" s="26"/>
-      <c r="AB51" s="26"/>
-      <c r="AC51" s="26"/>
-      <c r="AD51" s="26"/>
-      <c r="AE51" s="26"/>
-      <c r="AF51" s="26"/>
-      <c r="AG51" s="26"/>
-      <c r="AH51" s="26"/>
-      <c r="AI51" s="26"/>
-      <c r="AJ51" s="26"/>
-      <c r="AK51" s="27"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="W51" s="56"/>
+      <c r="X51" s="57"/>
+      <c r="Y51" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z51" s="56"/>
+      <c r="AA51" s="56"/>
+      <c r="AB51" s="56"/>
+      <c r="AC51" s="56"/>
+      <c r="AD51" s="56"/>
+      <c r="AE51" s="56"/>
+      <c r="AF51" s="56"/>
+      <c r="AG51" s="56"/>
+      <c r="AH51" s="56"/>
+      <c r="AI51" s="56"/>
+      <c r="AJ51" s="56"/>
+      <c r="AK51" s="57"/>
       <c r="AL51" s="24"/>
       <c r="AM51" s="24"/>
       <c r="AN51" s="24"/>
@@ -7406,214 +7400,329 @@
       <c r="AQ51" s="24"/>
     </row>
     <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="37"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="40"/>
-      <c r="W52" s="40"/>
-      <c r="X52" s="40"/>
-      <c r="Y52" s="37"/>
-      <c r="Z52" s="39"/>
-      <c r="AA52" s="39"/>
-      <c r="AB52" s="39"/>
-      <c r="AC52" s="39"/>
-      <c r="AD52" s="39"/>
-      <c r="AE52" s="39"/>
-      <c r="AF52" s="39"/>
-      <c r="AG52" s="39"/>
-      <c r="AH52" s="39"/>
-      <c r="AI52" s="39"/>
-      <c r="AJ52" s="39"/>
-      <c r="AK52" s="38"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="58"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="58"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="61"/>
+      <c r="R52" s="61"/>
+      <c r="S52" s="58"/>
+      <c r="T52" s="60"/>
+      <c r="U52" s="60"/>
+      <c r="V52" s="61"/>
+      <c r="W52" s="61"/>
+      <c r="X52" s="61"/>
+      <c r="Y52" s="58"/>
+      <c r="Z52" s="60"/>
+      <c r="AA52" s="60"/>
+      <c r="AB52" s="60"/>
+      <c r="AC52" s="60"/>
+      <c r="AD52" s="60"/>
+      <c r="AE52" s="60"/>
+      <c r="AF52" s="60"/>
+      <c r="AG52" s="60"/>
+      <c r="AH52" s="60"/>
+      <c r="AI52" s="60"/>
+      <c r="AJ52" s="60"/>
+      <c r="AK52" s="59"/>
     </row>
     <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="37"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="40"/>
-      <c r="W53" s="40"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="37"/>
-      <c r="Z53" s="39"/>
-      <c r="AA53" s="39"/>
-      <c r="AB53" s="39"/>
-      <c r="AC53" s="39"/>
-      <c r="AD53" s="39"/>
-      <c r="AE53" s="39"/>
-      <c r="AF53" s="39"/>
-      <c r="AG53" s="39"/>
-      <c r="AH53" s="39"/>
-      <c r="AI53" s="39"/>
-      <c r="AJ53" s="39"/>
-      <c r="AK53" s="38"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="58"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="58"/>
+      <c r="R53" s="59"/>
+      <c r="S53" s="58"/>
+      <c r="T53" s="60"/>
+      <c r="U53" s="60"/>
+      <c r="V53" s="61"/>
+      <c r="W53" s="61"/>
+      <c r="X53" s="61"/>
+      <c r="Y53" s="58"/>
+      <c r="Z53" s="60"/>
+      <c r="AA53" s="60"/>
+      <c r="AB53" s="60"/>
+      <c r="AC53" s="60"/>
+      <c r="AD53" s="60"/>
+      <c r="AE53" s="60"/>
+      <c r="AF53" s="60"/>
+      <c r="AG53" s="60"/>
+      <c r="AH53" s="60"/>
+      <c r="AI53" s="60"/>
+      <c r="AJ53" s="60"/>
+      <c r="AK53" s="59"/>
     </row>
     <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="37"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="40"/>
-      <c r="W54" s="40"/>
-      <c r="X54" s="40"/>
-      <c r="Y54" s="37"/>
-      <c r="Z54" s="39"/>
-      <c r="AA54" s="39"/>
-      <c r="AB54" s="39"/>
-      <c r="AC54" s="39"/>
-      <c r="AD54" s="39"/>
-      <c r="AE54" s="39"/>
-      <c r="AF54" s="39"/>
-      <c r="AG54" s="39"/>
-      <c r="AH54" s="39"/>
-      <c r="AI54" s="39"/>
-      <c r="AJ54" s="39"/>
-      <c r="AK54" s="38"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="58"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="58"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="61"/>
+      <c r="R54" s="61"/>
+      <c r="S54" s="58"/>
+      <c r="T54" s="60"/>
+      <c r="U54" s="60"/>
+      <c r="V54" s="61"/>
+      <c r="W54" s="61"/>
+      <c r="X54" s="61"/>
+      <c r="Y54" s="58"/>
+      <c r="Z54" s="60"/>
+      <c r="AA54" s="60"/>
+      <c r="AB54" s="60"/>
+      <c r="AC54" s="60"/>
+      <c r="AD54" s="60"/>
+      <c r="AE54" s="60"/>
+      <c r="AF54" s="60"/>
+      <c r="AG54" s="60"/>
+      <c r="AH54" s="60"/>
+      <c r="AI54" s="60"/>
+      <c r="AJ54" s="60"/>
+      <c r="AK54" s="59"/>
     </row>
     <row r="55" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A55" s="37"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="38"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="40"/>
-      <c r="W55" s="40"/>
-      <c r="X55" s="40"/>
-      <c r="Y55" s="37"/>
-      <c r="Z55" s="39"/>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="39"/>
-      <c r="AD55" s="39"/>
-      <c r="AE55" s="39"/>
-      <c r="AF55" s="39"/>
-      <c r="AG55" s="39"/>
-      <c r="AH55" s="39"/>
-      <c r="AI55" s="39"/>
-      <c r="AJ55" s="39"/>
-      <c r="AK55" s="38"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="58"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="58"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="58"/>
+      <c r="R55" s="59"/>
+      <c r="S55" s="58"/>
+      <c r="T55" s="60"/>
+      <c r="U55" s="60"/>
+      <c r="V55" s="61"/>
+      <c r="W55" s="61"/>
+      <c r="X55" s="61"/>
+      <c r="Y55" s="58"/>
+      <c r="Z55" s="60"/>
+      <c r="AA55" s="60"/>
+      <c r="AB55" s="60"/>
+      <c r="AC55" s="60"/>
+      <c r="AD55" s="60"/>
+      <c r="AE55" s="60"/>
+      <c r="AF55" s="60"/>
+      <c r="AG55" s="60"/>
+      <c r="AH55" s="60"/>
+      <c r="AI55" s="60"/>
+      <c r="AJ55" s="60"/>
+      <c r="AK55" s="59"/>
     </row>
     <row r="56" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A56" s="37"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="38"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="40"/>
-      <c r="W56" s="40"/>
-      <c r="X56" s="40"/>
-      <c r="Y56" s="37"/>
-      <c r="Z56" s="39"/>
-      <c r="AA56" s="39"/>
-      <c r="AB56" s="39"/>
-      <c r="AC56" s="39"/>
-      <c r="AD56" s="39"/>
-      <c r="AE56" s="39"/>
-      <c r="AF56" s="39"/>
-      <c r="AG56" s="39"/>
-      <c r="AH56" s="39"/>
-      <c r="AI56" s="39"/>
-      <c r="AJ56" s="39"/>
-      <c r="AK56" s="38"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="60"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="58"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="58"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="58"/>
+      <c r="R56" s="59"/>
+      <c r="S56" s="58"/>
+      <c r="T56" s="60"/>
+      <c r="U56" s="60"/>
+      <c r="V56" s="61"/>
+      <c r="W56" s="61"/>
+      <c r="X56" s="61"/>
+      <c r="Y56" s="58"/>
+      <c r="Z56" s="60"/>
+      <c r="AA56" s="60"/>
+      <c r="AB56" s="60"/>
+      <c r="AC56" s="60"/>
+      <c r="AD56" s="60"/>
+      <c r="AE56" s="60"/>
+      <c r="AF56" s="60"/>
+      <c r="AG56" s="60"/>
+      <c r="AH56" s="60"/>
+      <c r="AI56" s="60"/>
+      <c r="AJ56" s="60"/>
+      <c r="AK56" s="59"/>
     </row>
     <row r="59" spans="1:43" ht="12.75" customHeight="1">
       <c r="B59" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="Y46:AK46"/>
+    <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="Y50:AK50"/>
+    <mergeCell ref="Y49:AK49"/>
+    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="Y47:AK47"/>
+    <mergeCell ref="Y41:AK42"/>
+    <mergeCell ref="Y45:AK45"/>
+    <mergeCell ref="Y44:AK44"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="S41:U42"/>
+    <mergeCell ref="V41:X42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AK56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AK54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AK53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AK52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="O44:P44"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:H43"/>
     <mergeCell ref="I43:L43"/>
@@ -7634,130 +7743,15 @@
     <mergeCell ref="Z4:AB5"/>
     <mergeCell ref="AC4:AE5"/>
     <mergeCell ref="Y43:AK43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AK52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AK53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AK54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AK55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AK56"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="S41:U42"/>
-    <mergeCell ref="V41:X42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y46:AK46"/>
-    <mergeCell ref="Y51:AK51"/>
-    <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="Y49:AK49"/>
-    <mergeCell ref="Y48:AK48"/>
-    <mergeCell ref="Y47:AK47"/>
-    <mergeCell ref="Y41:AK42"/>
-    <mergeCell ref="Y45:AK45"/>
-    <mergeCell ref="Y44:AK44"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/設計書/画面レイアウト/掲示板画面.xlsx
+++ b/設計書/画面レイアウト/掲示板画面.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makam\Desktop\nuko\設計書\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EE01A5-CCC9-4120-AAAB-6E598DED0641}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7812B7-E9E6-4DF9-A59E-417D9DBE1747}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="掲示板" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">掲示板!$A$1:$AK$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">掲示板!$A$1:$AK$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">掲示板!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -199,6 +199,16 @@
     <t>掲示板</t>
     <rPh sb="0" eb="3">
       <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9月6日</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -637,7 +647,84 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2019/9/10</t>
+    <t>→掲示板を削除し、掲示板画面を更新する</t>
+    <rPh sb="1" eb="4">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除ボタンを押下　※自ら投稿した掲示板のみボタンを表示</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミズカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>‐</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>掲示板画面</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>投稿した掲示板を削除し、画面を更新するボタン</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2145,114 +2232,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="楕円 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4300F50B-67D5-4A31-B4E7-885AF8A76B2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4695825" y="4514850"/>
-          <a:ext cx="581025" cy="600074"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>47622</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142873</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="図 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90790D97-2956-4B14-8B15-BF5B9888EEEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4829174" y="4619622"/>
-          <a:ext cx="419101" cy="419101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>22</xdr:row>
@@ -4852,6 +4831,377 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>299054</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>115748</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>241904</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>106224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="四角形: 角を丸くする 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC9DBA0-3444-46EC-A716-CE94018A0D06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4385279" y="4525823"/>
+          <a:ext cx="571500" cy="314326"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>203804</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>77648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>241903</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>144323</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E94E2D0-EFD6-4C61-A1BA-109D3B8A9743}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4290029" y="4487723"/>
+          <a:ext cx="666749" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>156179</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>96698</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線コネクタ 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CCBBF6E-8AA6-40B8-B868-18CBA21BF86C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="4610100"/>
+          <a:ext cx="89504" cy="58598"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>165704</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>49073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>118079</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>111403</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2440E3E-AF64-43B7-B096-80CAEDCEC6E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3937604" y="4459148"/>
+          <a:ext cx="266700" cy="224255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑩</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="楕円 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4300F50B-67D5-4A31-B4E7-885AF8A76B2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="4505325"/>
+          <a:ext cx="581025" cy="600074"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90790D97-2956-4B14-8B15-BF5B9888EEEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829174" y="4619622"/>
+          <a:ext cx="419101" cy="419101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5152,18 +5502,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FAF31-7FA1-4843-A935-57F7BF0F397F}">
-  <dimension ref="A1:AQ59"/>
+  <dimension ref="A1:AQ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y54" sqref="Y54:AK54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.08984375" style="18" customWidth="1"/>
-    <col min="7" max="33" width="4.08984375" style="1" customWidth="1"/>
-    <col min="34" max="37" width="4.08984375" style="19" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="18" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="1" customWidth="1"/>
+    <col min="34" max="37" width="4.125" style="19" customWidth="1"/>
     <col min="38" max="41" width="4" style="1" customWidth="1"/>
     <col min="42" max="16384" width="9" style="1"/>
   </cols>
@@ -5315,7 +5665,7 @@
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
       <c r="I4" s="41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
@@ -5338,12 +5688,12 @@
       <c r="X4" s="48"/>
       <c r="Y4" s="49"/>
       <c r="Z4" s="45" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="AA4" s="41"/>
       <c r="AB4" s="42"/>
       <c r="AC4" s="45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD4" s="41"/>
       <c r="AE4" s="42"/>
@@ -5540,7 +5890,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
@@ -5581,7 +5931,7 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
@@ -5663,7 +6013,7 @@
         <v>2</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
@@ -5704,7 +6054,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
@@ -5745,7 +6095,7 @@
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
@@ -6411,7 +6761,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="9"/>
       <c r="AA32" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
@@ -6474,7 +6824,7 @@
         <v>3</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
@@ -6513,7 +6863,7 @@
       <c r="R35" s="10"/>
       <c r="S35" s="9"/>
       <c r="U35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
@@ -6594,7 +6944,7 @@
         <v>4</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
@@ -6635,7 +6985,7 @@
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -6686,208 +7036,171 @@
       <c r="AK39" s="10"/>
     </row>
     <row r="40" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="15"/>
-      <c r="AF40" s="15"/>
-      <c r="AG40" s="15"/>
-      <c r="AH40" s="15"/>
-      <c r="AI40" s="15"/>
-      <c r="AJ40" s="15"/>
-      <c r="AK40" s="16"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="1">
+        <v>5</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="9"/>
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="9"/>
+      <c r="AJ40" s="9"/>
+      <c r="AK40" s="10"/>
     </row>
     <row r="41" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A41" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="N41" s="35"/>
-      <c r="O41" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="R41" s="32"/>
-      <c r="S41" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="T41" s="34"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="W41" s="34"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34"/>
-      <c r="AE41" s="34"/>
-      <c r="AF41" s="34"/>
-      <c r="AG41" s="34"/>
-      <c r="AH41" s="34"/>
-      <c r="AI41" s="34"/>
-      <c r="AJ41" s="34"/>
-      <c r="AK41" s="35"/>
-      <c r="AL41" s="24"/>
-      <c r="AM41" s="24"/>
-      <c r="AN41" s="24"/>
-      <c r="AO41" s="24"/>
-      <c r="AP41" s="24"/>
-      <c r="AQ41" s="24"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="9"/>
+      <c r="U41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB41" s="9"/>
+      <c r="AC41" s="9"/>
+      <c r="AD41" s="9"/>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="9"/>
+      <c r="AG41" s="9"/>
+      <c r="AH41" s="9"/>
+      <c r="AI41" s="9"/>
+      <c r="AJ41" s="9"/>
+      <c r="AK41" s="10"/>
     </row>
     <row r="42" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A42" s="36"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="37"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="37"/>
-      <c r="AA42" s="37"/>
-      <c r="AB42" s="37"/>
-      <c r="AC42" s="37"/>
-      <c r="AD42" s="37"/>
-      <c r="AE42" s="37"/>
-      <c r="AF42" s="37"/>
-      <c r="AG42" s="37"/>
-      <c r="AH42" s="37"/>
-      <c r="AI42" s="37"/>
-      <c r="AJ42" s="37"/>
-      <c r="AK42" s="38"/>
-      <c r="AL42" s="24"/>
-      <c r="AM42" s="24"/>
-      <c r="AN42" s="24"/>
-      <c r="AO42" s="24"/>
-      <c r="AP42" s="24"/>
-      <c r="AQ42" s="24"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="15"/>
+      <c r="AE42" s="15"/>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42" s="15"/>
+      <c r="AI42" s="15"/>
+      <c r="AJ42" s="15"/>
+      <c r="AK42" s="16"/>
     </row>
     <row r="43" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A43" s="29">
-        <v>1</v>
-      </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="N43" s="30"/>
-      <c r="O43" s="29">
-        <v>128</v>
-      </c>
-      <c r="P43" s="30"/>
+      <c r="A43" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="35"/>
+      <c r="C43" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43" s="35"/>
+      <c r="O43" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="P43" s="35"/>
       <c r="Q43" s="32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R43" s="32"/>
-      <c r="S43" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="T43" s="31"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="W43" s="31"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z43" s="56"/>
-      <c r="AA43" s="56"/>
-      <c r="AB43" s="56"/>
-      <c r="AC43" s="56"/>
-      <c r="AD43" s="56"/>
-      <c r="AE43" s="56"/>
-      <c r="AF43" s="56"/>
-      <c r="AG43" s="56"/>
-      <c r="AH43" s="56"/>
-      <c r="AI43" s="56"/>
-      <c r="AJ43" s="56"/>
-      <c r="AK43" s="57"/>
+      <c r="S43" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="T43" s="34"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="W43" s="34"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="34"/>
+      <c r="AE43" s="34"/>
+      <c r="AF43" s="34"/>
+      <c r="AG43" s="34"/>
+      <c r="AH43" s="34"/>
+      <c r="AI43" s="34"/>
+      <c r="AJ43" s="34"/>
+      <c r="AK43" s="35"/>
       <c r="AL43" s="24"/>
       <c r="AM43" s="24"/>
       <c r="AN43" s="24"/>
@@ -6896,61 +7209,43 @@
       <c r="AQ43" s="24"/>
     </row>
     <row r="44" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A44" s="29">
-        <v>2</v>
-      </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="N44" s="30"/>
-      <c r="O44" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="32" t="s">
-        <v>16</v>
-      </c>
+      <c r="A44" s="36"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="32"/>
       <c r="R44" s="32"/>
-      <c r="S44" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="T44" s="31"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="W44" s="31"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z44" s="56"/>
-      <c r="AA44" s="56"/>
-      <c r="AB44" s="56"/>
-      <c r="AC44" s="56"/>
-      <c r="AD44" s="56"/>
-      <c r="AE44" s="56"/>
-      <c r="AF44" s="56"/>
-      <c r="AG44" s="56"/>
-      <c r="AH44" s="56"/>
-      <c r="AI44" s="56"/>
-      <c r="AJ44" s="56"/>
-      <c r="AK44" s="57"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="36"/>
+      <c r="Z44" s="37"/>
+      <c r="AA44" s="37"/>
+      <c r="AB44" s="37"/>
+      <c r="AC44" s="37"/>
+      <c r="AD44" s="37"/>
+      <c r="AE44" s="37"/>
+      <c r="AF44" s="37"/>
+      <c r="AG44" s="37"/>
+      <c r="AH44" s="37"/>
+      <c r="AI44" s="37"/>
+      <c r="AJ44" s="37"/>
+      <c r="AK44" s="38"/>
       <c r="AL44" s="24"/>
       <c r="AM44" s="24"/>
       <c r="AN44" s="24"/>
@@ -6960,11 +7255,11 @@
     </row>
     <row r="45" spans="1:43" ht="12.75" customHeight="1">
       <c r="A45" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B45" s="30"/>
       <c r="C45" s="29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
@@ -6972,17 +7267,17 @@
       <c r="G45" s="31"/>
       <c r="H45" s="30"/>
       <c r="I45" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J45" s="31"/>
       <c r="K45" s="31"/>
       <c r="L45" s="30"/>
       <c r="M45" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N45" s="30"/>
       <c r="O45" s="29">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="P45" s="30"/>
       <c r="Q45" s="32" t="s">
@@ -6999,21 +7294,21 @@
       </c>
       <c r="W45" s="31"/>
       <c r="X45" s="30"/>
-      <c r="Y45" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z45" s="56"/>
-      <c r="AA45" s="56"/>
-      <c r="AB45" s="56"/>
-      <c r="AC45" s="56"/>
-      <c r="AD45" s="56"/>
-      <c r="AE45" s="56"/>
-      <c r="AF45" s="56"/>
-      <c r="AG45" s="56"/>
-      <c r="AH45" s="56"/>
-      <c r="AI45" s="56"/>
-      <c r="AJ45" s="56"/>
-      <c r="AK45" s="57"/>
+      <c r="Y45" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z45" s="31"/>
+      <c r="AA45" s="31"/>
+      <c r="AB45" s="31"/>
+      <c r="AC45" s="31"/>
+      <c r="AD45" s="31"/>
+      <c r="AE45" s="31"/>
+      <c r="AF45" s="31"/>
+      <c r="AG45" s="31"/>
+      <c r="AH45" s="31"/>
+      <c r="AI45" s="31"/>
+      <c r="AJ45" s="31"/>
+      <c r="AK45" s="30"/>
       <c r="AL45" s="24"/>
       <c r="AM45" s="24"/>
       <c r="AN45" s="24"/>
@@ -7023,7 +7318,7 @@
     </row>
     <row r="46" spans="1:43" ht="12.75" customHeight="1">
       <c r="A46" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B46" s="30"/>
       <c r="C46" s="29" t="s">
@@ -7035,48 +7330,48 @@
       <c r="G46" s="31"/>
       <c r="H46" s="30"/>
       <c r="I46" s="29" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="J46" s="31"/>
       <c r="K46" s="31"/>
       <c r="L46" s="30"/>
       <c r="M46" s="29" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="N46" s="30"/>
       <c r="O46" s="29" t="s">
         <v>16</v>
       </c>
       <c r="P46" s="30"/>
-      <c r="Q46" s="29" t="s">
+      <c r="Q46" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R46" s="30"/>
+      <c r="R46" s="32"/>
       <c r="S46" s="29" t="s">
         <v>16</v>
       </c>
       <c r="T46" s="31"/>
       <c r="U46" s="30"/>
-      <c r="V46" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="W46" s="56"/>
-      <c r="X46" s="57"/>
-      <c r="Y46" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z46" s="56"/>
-      <c r="AA46" s="56"/>
-      <c r="AB46" s="56"/>
-      <c r="AC46" s="56"/>
-      <c r="AD46" s="56"/>
-      <c r="AE46" s="56"/>
-      <c r="AF46" s="56"/>
-      <c r="AG46" s="56"/>
-      <c r="AH46" s="56"/>
-      <c r="AI46" s="56"/>
-      <c r="AJ46" s="56"/>
-      <c r="AK46" s="57"/>
+      <c r="V46" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="W46" s="31"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z46" s="31"/>
+      <c r="AA46" s="31"/>
+      <c r="AB46" s="31"/>
+      <c r="AC46" s="31"/>
+      <c r="AD46" s="31"/>
+      <c r="AE46" s="31"/>
+      <c r="AF46" s="31"/>
+      <c r="AG46" s="31"/>
+      <c r="AH46" s="31"/>
+      <c r="AI46" s="31"/>
+      <c r="AJ46" s="31"/>
+      <c r="AK46" s="30"/>
       <c r="AL46" s="24"/>
       <c r="AM46" s="24"/>
       <c r="AN46" s="24"/>
@@ -7086,11 +7381,11 @@
     </row>
     <row r="47" spans="1:43" ht="12.75" customHeight="1">
       <c r="A47" s="29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="29" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
@@ -7098,17 +7393,17 @@
       <c r="G47" s="31"/>
       <c r="H47" s="30"/>
       <c r="I47" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J47" s="31"/>
       <c r="K47" s="31"/>
       <c r="L47" s="30"/>
       <c r="M47" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N47" s="30"/>
       <c r="O47" s="29">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="P47" s="30"/>
       <c r="Q47" s="32" t="s">
@@ -7125,21 +7420,21 @@
       </c>
       <c r="W47" s="31"/>
       <c r="X47" s="30"/>
-      <c r="Y47" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z47" s="56"/>
-      <c r="AA47" s="56"/>
-      <c r="AB47" s="56"/>
-      <c r="AC47" s="56"/>
-      <c r="AD47" s="56"/>
-      <c r="AE47" s="56"/>
-      <c r="AF47" s="56"/>
-      <c r="AG47" s="56"/>
-      <c r="AH47" s="56"/>
-      <c r="AI47" s="56"/>
-      <c r="AJ47" s="56"/>
-      <c r="AK47" s="57"/>
+      <c r="Y47" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z47" s="31"/>
+      <c r="AA47" s="31"/>
+      <c r="AB47" s="31"/>
+      <c r="AC47" s="31"/>
+      <c r="AD47" s="31"/>
+      <c r="AE47" s="31"/>
+      <c r="AF47" s="31"/>
+      <c r="AG47" s="31"/>
+      <c r="AH47" s="31"/>
+      <c r="AI47" s="31"/>
+      <c r="AJ47" s="31"/>
+      <c r="AK47" s="30"/>
       <c r="AL47" s="24"/>
       <c r="AM47" s="24"/>
       <c r="AN47" s="24"/>
@@ -7149,11 +7444,11 @@
     </row>
     <row r="48" spans="1:43" ht="12.75" customHeight="1">
       <c r="A48" s="29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B48" s="30"/>
       <c r="C48" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
@@ -7161,48 +7456,48 @@
       <c r="G48" s="31"/>
       <c r="H48" s="30"/>
       <c r="I48" s="29" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="J48" s="31"/>
       <c r="K48" s="31"/>
       <c r="L48" s="30"/>
       <c r="M48" s="29" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N48" s="30"/>
       <c r="O48" s="29" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="P48" s="30"/>
-      <c r="Q48" s="32" t="s">
+      <c r="Q48" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="R48" s="32"/>
+      <c r="R48" s="30"/>
       <c r="S48" s="29" t="s">
         <v>16</v>
       </c>
       <c r="T48" s="31"/>
       <c r="U48" s="30"/>
-      <c r="V48" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="W48" s="31"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="56"/>
-      <c r="AC48" s="56"/>
-      <c r="AD48" s="56"/>
-      <c r="AE48" s="56"/>
-      <c r="AF48" s="56"/>
-      <c r="AG48" s="56"/>
-      <c r="AH48" s="56"/>
-      <c r="AI48" s="56"/>
-      <c r="AJ48" s="56"/>
-      <c r="AK48" s="57"/>
+      <c r="V48" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="W48" s="56"/>
+      <c r="X48" s="57"/>
+      <c r="Y48" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z48" s="31"/>
+      <c r="AA48" s="31"/>
+      <c r="AB48" s="31"/>
+      <c r="AC48" s="31"/>
+      <c r="AD48" s="31"/>
+      <c r="AE48" s="31"/>
+      <c r="AF48" s="31"/>
+      <c r="AG48" s="31"/>
+      <c r="AH48" s="31"/>
+      <c r="AI48" s="31"/>
+      <c r="AJ48" s="31"/>
+      <c r="AK48" s="30"/>
       <c r="AL48" s="24"/>
       <c r="AM48" s="24"/>
       <c r="AN48" s="24"/>
@@ -7211,32 +7506,32 @@
       <c r="AQ48" s="24"/>
     </row>
     <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="32">
-        <v>7</v>
-      </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="N49" s="32"/>
-      <c r="O49" s="53">
+      <c r="A49" s="29">
+        <v>5</v>
+      </c>
+      <c r="B49" s="30"/>
+      <c r="C49" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="N49" s="30"/>
+      <c r="O49" s="29">
         <v>128</v>
       </c>
-      <c r="P49" s="54"/>
+      <c r="P49" s="30"/>
       <c r="Q49" s="32" t="s">
         <v>16</v>
       </c>
@@ -7247,25 +7542,25 @@
       <c r="T49" s="31"/>
       <c r="U49" s="30"/>
       <c r="V49" s="29" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="W49" s="31"/>
       <c r="X49" s="30"/>
-      <c r="Y49" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z49" s="56"/>
-      <c r="AA49" s="56"/>
-      <c r="AB49" s="56"/>
-      <c r="AC49" s="56"/>
-      <c r="AD49" s="56"/>
-      <c r="AE49" s="56"/>
-      <c r="AF49" s="56"/>
-      <c r="AG49" s="56"/>
-      <c r="AH49" s="56"/>
-      <c r="AI49" s="56"/>
-      <c r="AJ49" s="56"/>
-      <c r="AK49" s="57"/>
+      <c r="Y49" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z49" s="31"/>
+      <c r="AA49" s="31"/>
+      <c r="AB49" s="31"/>
+      <c r="AC49" s="31"/>
+      <c r="AD49" s="31"/>
+      <c r="AE49" s="31"/>
+      <c r="AF49" s="31"/>
+      <c r="AG49" s="31"/>
+      <c r="AH49" s="31"/>
+      <c r="AI49" s="31"/>
+      <c r="AJ49" s="31"/>
+      <c r="AK49" s="30"/>
       <c r="AL49" s="24"/>
       <c r="AM49" s="24"/>
       <c r="AN49" s="24"/>
@@ -7274,32 +7569,32 @@
       <c r="AQ49" s="24"/>
     </row>
     <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="32">
-        <v>8</v>
-      </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="N50" s="32"/>
-      <c r="O50" s="53">
-        <v>128</v>
-      </c>
-      <c r="P50" s="54"/>
+      <c r="A50" s="29">
+        <v>6</v>
+      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="N50" s="30"/>
+      <c r="O50" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" s="30"/>
       <c r="Q50" s="32" t="s">
         <v>16</v>
       </c>
@@ -7310,25 +7605,25 @@
       <c r="T50" s="31"/>
       <c r="U50" s="30"/>
       <c r="V50" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W50" s="31"/>
       <c r="X50" s="30"/>
-      <c r="Y50" s="55" t="s">
+      <c r="Y50" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="Z50" s="56"/>
-      <c r="AA50" s="56"/>
-      <c r="AB50" s="56"/>
-      <c r="AC50" s="56"/>
-      <c r="AD50" s="56"/>
-      <c r="AE50" s="56"/>
-      <c r="AF50" s="56"/>
-      <c r="AG50" s="56"/>
-      <c r="AH50" s="56"/>
-      <c r="AI50" s="56"/>
-      <c r="AJ50" s="56"/>
-      <c r="AK50" s="57"/>
+      <c r="Z50" s="31"/>
+      <c r="AA50" s="31"/>
+      <c r="AB50" s="31"/>
+      <c r="AC50" s="31"/>
+      <c r="AD50" s="31"/>
+      <c r="AE50" s="31"/>
+      <c r="AF50" s="31"/>
+      <c r="AG50" s="31"/>
+      <c r="AH50" s="31"/>
+      <c r="AI50" s="31"/>
+      <c r="AJ50" s="31"/>
+      <c r="AK50" s="30"/>
       <c r="AL50" s="24"/>
       <c r="AM50" s="24"/>
       <c r="AN50" s="24"/>
@@ -7338,7 +7633,7 @@
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1">
       <c r="A51" s="32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B51" s="32"/>
       <c r="C51" s="32" t="s">
@@ -7350,19 +7645,19 @@
       <c r="G51" s="32"/>
       <c r="H51" s="32"/>
       <c r="I51" s="32" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J51" s="32"/>
       <c r="K51" s="32"/>
       <c r="L51" s="32"/>
       <c r="M51" s="32" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="N51" s="32"/>
-      <c r="O51" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="P51" s="30"/>
+      <c r="O51" s="53">
+        <v>128</v>
+      </c>
+      <c r="P51" s="54"/>
       <c r="Q51" s="32" t="s">
         <v>16</v>
       </c>
@@ -7372,26 +7667,26 @@
       </c>
       <c r="T51" s="31"/>
       <c r="U51" s="30"/>
-      <c r="V51" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="W51" s="56"/>
-      <c r="X51" s="57"/>
-      <c r="Y51" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z51" s="56"/>
-      <c r="AA51" s="56"/>
-      <c r="AB51" s="56"/>
-      <c r="AC51" s="56"/>
-      <c r="AD51" s="56"/>
-      <c r="AE51" s="56"/>
-      <c r="AF51" s="56"/>
-      <c r="AG51" s="56"/>
-      <c r="AH51" s="56"/>
-      <c r="AI51" s="56"/>
-      <c r="AJ51" s="56"/>
-      <c r="AK51" s="57"/>
+      <c r="V51" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W51" s="31"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z51" s="31"/>
+      <c r="AA51" s="31"/>
+      <c r="AB51" s="31"/>
+      <c r="AC51" s="31"/>
+      <c r="AD51" s="31"/>
+      <c r="AE51" s="31"/>
+      <c r="AF51" s="31"/>
+      <c r="AG51" s="31"/>
+      <c r="AH51" s="31"/>
+      <c r="AI51" s="31"/>
+      <c r="AJ51" s="31"/>
+      <c r="AK51" s="30"/>
       <c r="AL51" s="24"/>
       <c r="AM51" s="24"/>
       <c r="AN51" s="24"/>
@@ -7400,109 +7695,175 @@
       <c r="AQ51" s="24"/>
     </row>
     <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="58"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="58"/>
-      <c r="P52" s="59"/>
-      <c r="Q52" s="61"/>
-      <c r="R52" s="61"/>
-      <c r="S52" s="58"/>
-      <c r="T52" s="60"/>
-      <c r="U52" s="60"/>
-      <c r="V52" s="61"/>
-      <c r="W52" s="61"/>
-      <c r="X52" s="61"/>
-      <c r="Y52" s="58"/>
-      <c r="Z52" s="60"/>
-      <c r="AA52" s="60"/>
-      <c r="AB52" s="60"/>
-      <c r="AC52" s="60"/>
-      <c r="AD52" s="60"/>
-      <c r="AE52" s="60"/>
-      <c r="AF52" s="60"/>
-      <c r="AG52" s="60"/>
-      <c r="AH52" s="60"/>
-      <c r="AI52" s="60"/>
-      <c r="AJ52" s="60"/>
-      <c r="AK52" s="59"/>
+      <c r="A52" s="32">
+        <v>8</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="N52" s="32"/>
+      <c r="O52" s="53">
+        <v>128</v>
+      </c>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="R52" s="32"/>
+      <c r="S52" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="T52" s="31"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="W52" s="31"/>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z52" s="31"/>
+      <c r="AA52" s="31"/>
+      <c r="AB52" s="31"/>
+      <c r="AC52" s="31"/>
+      <c r="AD52" s="31"/>
+      <c r="AE52" s="31"/>
+      <c r="AF52" s="31"/>
+      <c r="AG52" s="31"/>
+      <c r="AH52" s="31"/>
+      <c r="AI52" s="31"/>
+      <c r="AJ52" s="31"/>
+      <c r="AK52" s="30"/>
+      <c r="AL52" s="24"/>
+      <c r="AM52" s="24"/>
+      <c r="AN52" s="24"/>
+      <c r="AO52" s="24"/>
+      <c r="AP52" s="24"/>
+      <c r="AQ52" s="24"/>
     </row>
     <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="58"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="59"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="58"/>
-      <c r="R53" s="59"/>
-      <c r="S53" s="58"/>
-      <c r="T53" s="60"/>
-      <c r="U53" s="60"/>
-      <c r="V53" s="61"/>
-      <c r="W53" s="61"/>
-      <c r="X53" s="61"/>
-      <c r="Y53" s="58"/>
-      <c r="Z53" s="60"/>
-      <c r="AA53" s="60"/>
-      <c r="AB53" s="60"/>
-      <c r="AC53" s="60"/>
-      <c r="AD53" s="60"/>
-      <c r="AE53" s="60"/>
-      <c r="AF53" s="60"/>
-      <c r="AG53" s="60"/>
-      <c r="AH53" s="60"/>
-      <c r="AI53" s="60"/>
-      <c r="AJ53" s="60"/>
-      <c r="AK53" s="59"/>
+      <c r="A53" s="32">
+        <v>9</v>
+      </c>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N53" s="32"/>
+      <c r="O53" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="R53" s="32"/>
+      <c r="S53" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="T53" s="31"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="W53" s="56"/>
+      <c r="X53" s="57"/>
+      <c r="Y53" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z53" s="31"/>
+      <c r="AA53" s="31"/>
+      <c r="AB53" s="31"/>
+      <c r="AC53" s="31"/>
+      <c r="AD53" s="31"/>
+      <c r="AE53" s="31"/>
+      <c r="AF53" s="31"/>
+      <c r="AG53" s="31"/>
+      <c r="AH53" s="31"/>
+      <c r="AI53" s="31"/>
+      <c r="AJ53" s="31"/>
+      <c r="AK53" s="30"/>
+      <c r="AL53" s="24"/>
+      <c r="AM53" s="24"/>
+      <c r="AN53" s="24"/>
+      <c r="AO53" s="24"/>
+      <c r="AP53" s="24"/>
+      <c r="AQ53" s="24"/>
     </row>
     <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="58"/>
+      <c r="A54" s="58">
+        <v>10</v>
+      </c>
       <c r="B54" s="59"/>
-      <c r="C54" s="58"/>
+      <c r="C54" s="58" t="s">
+        <v>67</v>
+      </c>
       <c r="D54" s="60"/>
       <c r="E54" s="60"/>
       <c r="F54" s="60"/>
       <c r="G54" s="60"/>
       <c r="H54" s="59"/>
-      <c r="I54" s="58"/>
+      <c r="I54" s="58" t="s">
+        <v>33</v>
+      </c>
       <c r="J54" s="60"/>
       <c r="K54" s="60"/>
       <c r="L54" s="59"/>
-      <c r="M54" s="58"/>
+      <c r="M54" s="58" t="s">
+        <v>68</v>
+      </c>
       <c r="N54" s="59"/>
-      <c r="O54" s="58"/>
+      <c r="O54" s="58" t="s">
+        <v>68</v>
+      </c>
       <c r="P54" s="59"/>
-      <c r="Q54" s="61"/>
-      <c r="R54" s="61"/>
-      <c r="S54" s="58"/>
+      <c r="Q54" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="R54" s="59"/>
+      <c r="S54" s="58" t="s">
+        <v>68</v>
+      </c>
       <c r="T54" s="60"/>
       <c r="U54" s="60"/>
-      <c r="V54" s="61"/>
+      <c r="V54" s="61" t="s">
+        <v>69</v>
+      </c>
       <c r="W54" s="61"/>
       <c r="X54" s="61"/>
-      <c r="Y54" s="58"/>
+      <c r="Y54" s="58" t="s">
+        <v>70</v>
+      </c>
       <c r="Z54" s="60"/>
       <c r="AA54" s="60"/>
       <c r="AB54" s="60"/>
@@ -7572,8 +7933,8 @@
       <c r="N56" s="59"/>
       <c r="O56" s="58"/>
       <c r="P56" s="59"/>
-      <c r="Q56" s="58"/>
-      <c r="R56" s="59"/>
+      <c r="Q56" s="61"/>
+      <c r="R56" s="61"/>
       <c r="S56" s="58"/>
       <c r="T56" s="60"/>
       <c r="U56" s="60"/>
@@ -7594,35 +7955,131 @@
       <c r="AJ56" s="60"/>
       <c r="AK56" s="59"/>
     </row>
-    <row r="59" spans="1:43" ht="12.75" customHeight="1">
-      <c r="B59" s="17"/>
+    <row r="57" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A57" s="58"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="58"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="58"/>
+      <c r="P57" s="59"/>
+      <c r="Q57" s="58"/>
+      <c r="R57" s="59"/>
+      <c r="S57" s="58"/>
+      <c r="T57" s="60"/>
+      <c r="U57" s="60"/>
+      <c r="V57" s="61"/>
+      <c r="W57" s="61"/>
+      <c r="X57" s="61"/>
+      <c r="Y57" s="58"/>
+      <c r="Z57" s="60"/>
+      <c r="AA57" s="60"/>
+      <c r="AB57" s="60"/>
+      <c r="AC57" s="60"/>
+      <c r="AD57" s="60"/>
+      <c r="AE57" s="60"/>
+      <c r="AF57" s="60"/>
+      <c r="AG57" s="60"/>
+      <c r="AH57" s="60"/>
+      <c r="AI57" s="60"/>
+      <c r="AJ57" s="60"/>
+      <c r="AK57" s="59"/>
+    </row>
+    <row r="58" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A58" s="58"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="58"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="58"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="58"/>
+      <c r="R58" s="59"/>
+      <c r="S58" s="58"/>
+      <c r="T58" s="60"/>
+      <c r="U58" s="60"/>
+      <c r="V58" s="61"/>
+      <c r="W58" s="61"/>
+      <c r="X58" s="61"/>
+      <c r="Y58" s="58"/>
+      <c r="Z58" s="60"/>
+      <c r="AA58" s="60"/>
+      <c r="AB58" s="60"/>
+      <c r="AC58" s="60"/>
+      <c r="AD58" s="60"/>
+      <c r="AE58" s="60"/>
+      <c r="AF58" s="60"/>
+      <c r="AG58" s="60"/>
+      <c r="AH58" s="60"/>
+      <c r="AI58" s="60"/>
+      <c r="AJ58" s="60"/>
+      <c r="AK58" s="59"/>
+    </row>
+    <row r="61" spans="1:43" ht="12.75" customHeight="1">
+      <c r="B61" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="Y46:AK46"/>
+    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="Y53:AK53"/>
+    <mergeCell ref="Y52:AK52"/>
     <mergeCell ref="Y51:AK51"/>
     <mergeCell ref="Y50:AK50"/>
     <mergeCell ref="Y49:AK49"/>
-    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="Y43:AK44"/>
     <mergeCell ref="Y47:AK47"/>
-    <mergeCell ref="Y41:AK42"/>
-    <mergeCell ref="Y45:AK45"/>
-    <mergeCell ref="Y44:AK44"/>
+    <mergeCell ref="Y46:AK46"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="O43:P44"/>
+    <mergeCell ref="S43:U44"/>
+    <mergeCell ref="V43:X44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
     <mergeCell ref="S46:U46"/>
     <mergeCell ref="V46:X46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="S41:U42"/>
-    <mergeCell ref="V41:X42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AK58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AK57"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="C56:H56"/>
     <mergeCell ref="I56:L56"/>
@@ -7658,7 +8115,6 @@
     <mergeCell ref="O53:P53"/>
     <mergeCell ref="S53:U53"/>
     <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AK53"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:H52"/>
     <mergeCell ref="I52:L52"/>
@@ -7667,7 +8123,6 @@
     <mergeCell ref="O52:P52"/>
     <mergeCell ref="S52:U52"/>
     <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AK52"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="C51:H51"/>
     <mergeCell ref="I51:L51"/>
@@ -7689,60 +8144,44 @@
     <mergeCell ref="I49:L49"/>
     <mergeCell ref="M49:N49"/>
     <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="C48:H48"/>
     <mergeCell ref="I48:L48"/>
     <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
     <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:H47"/>
     <mergeCell ref="I47:L47"/>
     <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
     <mergeCell ref="Q47:R47"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="C46:H46"/>
     <mergeCell ref="I46:L46"/>
     <mergeCell ref="M46:N46"/>
+    <mergeCell ref="Q46:R46"/>
     <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="C45:H45"/>
     <mergeCell ref="I45:L45"/>
     <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
     <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="Q43:R43"/>
     <mergeCell ref="AF4:AH5"/>
     <mergeCell ref="AI4:AK5"/>
     <mergeCell ref="O37:P37"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:H42"/>
-    <mergeCell ref="I41:L42"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="Q41:R42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="C43:H44"/>
+    <mergeCell ref="I43:L44"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="Q43:R44"/>
     <mergeCell ref="A4:H5"/>
     <mergeCell ref="I4:O5"/>
     <mergeCell ref="P4:R5"/>
     <mergeCell ref="S4:Y5"/>
     <mergeCell ref="Z4:AB5"/>
     <mergeCell ref="AC4:AE5"/>
-    <mergeCell ref="Y43:AK43"/>
+    <mergeCell ref="Y45:AK45"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="I3:O3"/>

--- a/設計書/画面レイアウト/掲示板画面.xlsx
+++ b/設計書/画面レイアウト/掲示板画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makam\Desktop\nuko\設計書\設計書\画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7812B7-E9E6-4DF9-A59E-417D9DBE1747}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB1207B-A534-4E62-829C-3E15996BF38E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="掲示板" sheetId="12" r:id="rId1"/>
@@ -203,16 +203,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>9月6日</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>栗山</t>
     <rPh sb="0" eb="2">
       <t>クリヤマ</t>
@@ -725,6 +715,10 @@
     <rPh sb="15" eb="17">
       <t>コウシン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/9/6</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -960,7 +954,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1012,28 +1006,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1052,6 +1031,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1096,32 +1105,26 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5504,60 +5507,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FAF31-7FA1-4843-A935-57F7BF0F397F}">
   <dimension ref="A1:AQ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y54" sqref="Y54:AK54"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AE39" sqref="AE39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="18" customWidth="1"/>
-    <col min="7" max="33" width="4.125" style="1" customWidth="1"/>
-    <col min="34" max="37" width="4.125" style="19" customWidth="1"/>
+    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.08984375" style="18" customWidth="1"/>
+    <col min="7" max="33" width="4.08984375" style="1" customWidth="1"/>
+    <col min="34" max="37" width="4.08984375" style="19" customWidth="1"/>
     <col min="38" max="41" width="4" style="1" customWidth="1"/>
     <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
     </row>
     <row r="2" spans="1:37" ht="6" customHeight="1">
       <c r="A2" s="2"/>
@@ -5599,153 +5602,153 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="12">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="26" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="26" t="s">
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="26" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="26" t="s">
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="26" t="s">
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="26" t="s">
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="26" t="s">
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="28"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="61"/>
     </row>
     <row r="4" spans="1:37" ht="12" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="45" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="47" t="s">
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="45" t="s">
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="33" t="s">
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="33" t="s">
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="30"/>
     </row>
     <row r="5" spans="1:37" ht="12">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="38"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="33"/>
     </row>
     <row r="6" spans="1:37" ht="12">
       <c r="A6" s="3"/>
@@ -5890,7 +5893,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
@@ -5931,7 +5934,7 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
@@ -6013,7 +6016,7 @@
         <v>2</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
@@ -6054,7 +6057,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
@@ -6095,7 +6098,7 @@
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
@@ -6761,7 +6764,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="9"/>
       <c r="AA32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
@@ -6824,7 +6827,7 @@
         <v>3</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
@@ -6863,7 +6866,7 @@
       <c r="R35" s="10"/>
       <c r="S35" s="9"/>
       <c r="U35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
@@ -6935,8 +6938,8 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="10"/>
       <c r="S37" s="9"/>
@@ -6944,7 +6947,7 @@
         <v>4</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
@@ -6985,7 +6988,7 @@
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -7059,7 +7062,7 @@
         <v>5</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
@@ -7093,7 +7096,7 @@
       <c r="R41" s="10"/>
       <c r="S41" s="9"/>
       <c r="U41" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
@@ -7146,61 +7149,61 @@
       <c r="AK42" s="16"/>
     </row>
     <row r="43" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="33" t="s">
+      <c r="B43" s="30"/>
+      <c r="C43" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="33" t="s">
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="33" t="s">
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="N43" s="35"/>
-      <c r="O43" s="33" t="s">
+      <c r="N43" s="30"/>
+      <c r="O43" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="32" t="s">
+      <c r="P43" s="30"/>
+      <c r="Q43" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="R43" s="32"/>
-      <c r="S43" s="33" t="s">
+      <c r="R43" s="41"/>
+      <c r="S43" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="T43" s="34"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="33" t="s">
+      <c r="T43" s="29"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="W43" s="34"/>
-      <c r="X43" s="35"/>
-      <c r="Y43" s="33" t="s">
+      <c r="W43" s="29"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="34"/>
-      <c r="AD43" s="34"/>
-      <c r="AE43" s="34"/>
-      <c r="AF43" s="34"/>
-      <c r="AG43" s="34"/>
-      <c r="AH43" s="34"/>
-      <c r="AI43" s="34"/>
-      <c r="AJ43" s="34"/>
-      <c r="AK43" s="35"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="29"/>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="29"/>
+      <c r="AI43" s="29"/>
+      <c r="AJ43" s="29"/>
+      <c r="AK43" s="30"/>
       <c r="AL43" s="24"/>
       <c r="AM43" s="24"/>
       <c r="AN43" s="24"/>
@@ -7209,43 +7212,43 @@
       <c r="AQ43" s="24"/>
     </row>
     <row r="44" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A44" s="36"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="36"/>
-      <c r="Z44" s="37"/>
-      <c r="AA44" s="37"/>
-      <c r="AB44" s="37"/>
-      <c r="AC44" s="37"/>
-      <c r="AD44" s="37"/>
-      <c r="AE44" s="37"/>
-      <c r="AF44" s="37"/>
-      <c r="AG44" s="37"/>
-      <c r="AH44" s="37"/>
-      <c r="AI44" s="37"/>
-      <c r="AJ44" s="37"/>
-      <c r="AK44" s="38"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="33"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="33"/>
+      <c r="Y44" s="31"/>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="32"/>
+      <c r="AB44" s="32"/>
+      <c r="AC44" s="32"/>
+      <c r="AD44" s="32"/>
+      <c r="AE44" s="32"/>
+      <c r="AF44" s="32"/>
+      <c r="AG44" s="32"/>
+      <c r="AH44" s="32"/>
+      <c r="AI44" s="32"/>
+      <c r="AJ44" s="32"/>
+      <c r="AK44" s="33"/>
       <c r="AL44" s="24"/>
       <c r="AM44" s="24"/>
       <c r="AN44" s="24"/>
@@ -7254,61 +7257,61 @@
       <c r="AQ44" s="24"/>
     </row>
     <row r="45" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A45" s="29">
+      <c r="A45" s="25">
         <v>1</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="29" t="s">
+      <c r="B45" s="27"/>
+      <c r="C45" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="N45" s="30"/>
-      <c r="O45" s="29">
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N45" s="27"/>
+      <c r="O45" s="25">
         <v>128</v>
       </c>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="32" t="s">
+      <c r="P45" s="27"/>
+      <c r="Q45" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R45" s="32"/>
-      <c r="S45" s="29" t="s">
+      <c r="R45" s="41"/>
+      <c r="S45" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T45" s="31"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="29" t="s">
+      <c r="T45" s="26"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="W45" s="31"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="31"/>
-      <c r="AB45" s="31"/>
-      <c r="AC45" s="31"/>
-      <c r="AD45" s="31"/>
-      <c r="AE45" s="31"/>
-      <c r="AF45" s="31"/>
-      <c r="AG45" s="31"/>
-      <c r="AH45" s="31"/>
-      <c r="AI45" s="31"/>
-      <c r="AJ45" s="31"/>
-      <c r="AK45" s="30"/>
+      <c r="W45" s="26"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="35"/>
+      <c r="AD45" s="35"/>
+      <c r="AE45" s="35"/>
+      <c r="AF45" s="35"/>
+      <c r="AG45" s="35"/>
+      <c r="AH45" s="35"/>
+      <c r="AI45" s="35"/>
+      <c r="AJ45" s="35"/>
+      <c r="AK45" s="36"/>
       <c r="AL45" s="24"/>
       <c r="AM45" s="24"/>
       <c r="AN45" s="24"/>
@@ -7317,61 +7320,61 @@
       <c r="AQ45" s="24"/>
     </row>
     <row r="46" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A46" s="29">
+      <c r="A46" s="25">
         <v>2</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="29" t="s">
+      <c r="B46" s="27"/>
+      <c r="C46" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N46" s="30"/>
-      <c r="O46" s="29" t="s">
+      <c r="N46" s="27"/>
+      <c r="O46" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="32" t="s">
+      <c r="P46" s="27"/>
+      <c r="Q46" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R46" s="32"/>
-      <c r="S46" s="29" t="s">
+      <c r="R46" s="41"/>
+      <c r="S46" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T46" s="31"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="W46" s="31"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="31"/>
-      <c r="AB46" s="31"/>
-      <c r="AC46" s="31"/>
-      <c r="AD46" s="31"/>
-      <c r="AE46" s="31"/>
-      <c r="AF46" s="31"/>
-      <c r="AG46" s="31"/>
-      <c r="AH46" s="31"/>
-      <c r="AI46" s="31"/>
-      <c r="AJ46" s="31"/>
-      <c r="AK46" s="30"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="W46" s="26"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
+      <c r="AD46" s="35"/>
+      <c r="AE46" s="35"/>
+      <c r="AF46" s="35"/>
+      <c r="AG46" s="35"/>
+      <c r="AH46" s="35"/>
+      <c r="AI46" s="35"/>
+      <c r="AJ46" s="35"/>
+      <c r="AK46" s="36"/>
       <c r="AL46" s="24"/>
       <c r="AM46" s="24"/>
       <c r="AN46" s="24"/>
@@ -7380,61 +7383,61 @@
       <c r="AQ46" s="24"/>
     </row>
     <row r="47" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A47" s="29">
+      <c r="A47" s="25">
         <v>3</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="N47" s="30"/>
-      <c r="O47" s="29">
+      <c r="B47" s="27"/>
+      <c r="C47" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N47" s="27"/>
+      <c r="O47" s="25">
         <v>256</v>
       </c>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="32" t="s">
+      <c r="P47" s="27"/>
+      <c r="Q47" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="32"/>
-      <c r="S47" s="29" t="s">
+      <c r="R47" s="41"/>
+      <c r="S47" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T47" s="31"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="29" t="s">
+      <c r="T47" s="26"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="W47" s="31"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="31"/>
-      <c r="AC47" s="31"/>
-      <c r="AD47" s="31"/>
-      <c r="AE47" s="31"/>
-      <c r="AF47" s="31"/>
-      <c r="AG47" s="31"/>
-      <c r="AH47" s="31"/>
-      <c r="AI47" s="31"/>
-      <c r="AJ47" s="31"/>
-      <c r="AK47" s="30"/>
+      <c r="W47" s="26"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="35"/>
+      <c r="AD47" s="35"/>
+      <c r="AE47" s="35"/>
+      <c r="AF47" s="35"/>
+      <c r="AG47" s="35"/>
+      <c r="AH47" s="35"/>
+      <c r="AI47" s="35"/>
+      <c r="AJ47" s="35"/>
+      <c r="AK47" s="36"/>
       <c r="AL47" s="24"/>
       <c r="AM47" s="24"/>
       <c r="AN47" s="24"/>
@@ -7443,61 +7446,61 @@
       <c r="AQ47" s="24"/>
     </row>
     <row r="48" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A48" s="29">
+      <c r="A48" s="25">
         <v>4</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="29" t="s">
+      <c r="B48" s="27"/>
+      <c r="C48" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="N48" s="30"/>
-      <c r="O48" s="29" t="s">
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N48" s="27"/>
+      <c r="O48" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="29" t="s">
+      <c r="P48" s="27"/>
+      <c r="Q48" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R48" s="30"/>
-      <c r="S48" s="29" t="s">
+      <c r="R48" s="27"/>
+      <c r="S48" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T48" s="31"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="W48" s="56"/>
-      <c r="X48" s="57"/>
-      <c r="Y48" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z48" s="31"/>
-      <c r="AA48" s="31"/>
-      <c r="AB48" s="31"/>
-      <c r="AC48" s="31"/>
-      <c r="AD48" s="31"/>
-      <c r="AE48" s="31"/>
-      <c r="AF48" s="31"/>
-      <c r="AG48" s="31"/>
-      <c r="AH48" s="31"/>
-      <c r="AI48" s="31"/>
-      <c r="AJ48" s="31"/>
-      <c r="AK48" s="30"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="W48" s="35"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="35"/>
+      <c r="AE48" s="35"/>
+      <c r="AF48" s="35"/>
+      <c r="AG48" s="35"/>
+      <c r="AH48" s="35"/>
+      <c r="AI48" s="35"/>
+      <c r="AJ48" s="35"/>
+      <c r="AK48" s="36"/>
       <c r="AL48" s="24"/>
       <c r="AM48" s="24"/>
       <c r="AN48" s="24"/>
@@ -7506,61 +7509,61 @@
       <c r="AQ48" s="24"/>
     </row>
     <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="29">
+      <c r="A49" s="25">
         <v>5</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="N49" s="30"/>
-      <c r="O49" s="29">
+      <c r="B49" s="27"/>
+      <c r="C49" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N49" s="27"/>
+      <c r="O49" s="25">
         <v>128</v>
       </c>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="32" t="s">
+      <c r="P49" s="27"/>
+      <c r="Q49" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R49" s="32"/>
-      <c r="S49" s="29" t="s">
+      <c r="R49" s="41"/>
+      <c r="S49" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T49" s="31"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="29" t="s">
+      <c r="T49" s="26"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="W49" s="31"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z49" s="31"/>
-      <c r="AA49" s="31"/>
-      <c r="AB49" s="31"/>
-      <c r="AC49" s="31"/>
-      <c r="AD49" s="31"/>
-      <c r="AE49" s="31"/>
-      <c r="AF49" s="31"/>
-      <c r="AG49" s="31"/>
-      <c r="AH49" s="31"/>
-      <c r="AI49" s="31"/>
-      <c r="AJ49" s="31"/>
-      <c r="AK49" s="30"/>
+      <c r="W49" s="26"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="35"/>
+      <c r="AD49" s="35"/>
+      <c r="AE49" s="35"/>
+      <c r="AF49" s="35"/>
+      <c r="AG49" s="35"/>
+      <c r="AH49" s="35"/>
+      <c r="AI49" s="35"/>
+      <c r="AJ49" s="35"/>
+      <c r="AK49" s="36"/>
       <c r="AL49" s="24"/>
       <c r="AM49" s="24"/>
       <c r="AN49" s="24"/>
@@ -7569,61 +7572,61 @@
       <c r="AQ49" s="24"/>
     </row>
     <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="29">
+      <c r="A50" s="25">
         <v>6</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="29" t="s">
+      <c r="B50" s="27"/>
+      <c r="C50" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="N50" s="27"/>
+      <c r="O50" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N50" s="30"/>
-      <c r="O50" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="32" t="s">
+      <c r="P50" s="27"/>
+      <c r="Q50" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R50" s="32"/>
-      <c r="S50" s="29" t="s">
+      <c r="R50" s="41"/>
+      <c r="S50" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T50" s="31"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="W50" s="31"/>
-      <c r="X50" s="30"/>
-      <c r="Y50" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z50" s="31"/>
-      <c r="AA50" s="31"/>
-      <c r="AB50" s="31"/>
-      <c r="AC50" s="31"/>
-      <c r="AD50" s="31"/>
-      <c r="AE50" s="31"/>
-      <c r="AF50" s="31"/>
-      <c r="AG50" s="31"/>
-      <c r="AH50" s="31"/>
-      <c r="AI50" s="31"/>
-      <c r="AJ50" s="31"/>
-      <c r="AK50" s="30"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="W50" s="26"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
+      <c r="AB50" s="35"/>
+      <c r="AC50" s="35"/>
+      <c r="AD50" s="35"/>
+      <c r="AE50" s="35"/>
+      <c r="AF50" s="35"/>
+      <c r="AG50" s="35"/>
+      <c r="AH50" s="35"/>
+      <c r="AI50" s="35"/>
+      <c r="AJ50" s="35"/>
+      <c r="AK50" s="36"/>
       <c r="AL50" s="24"/>
       <c r="AM50" s="24"/>
       <c r="AN50" s="24"/>
@@ -7632,61 +7635,61 @@
       <c r="AQ50" s="24"/>
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A51" s="32">
+      <c r="A51" s="41">
         <v>7</v>
       </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="N51" s="32"/>
-      <c r="O51" s="53">
+      <c r="B51" s="41"/>
+      <c r="C51" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="N51" s="41"/>
+      <c r="O51" s="42">
         <v>128</v>
       </c>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="32" t="s">
+      <c r="P51" s="43"/>
+      <c r="Q51" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R51" s="32"/>
-      <c r="S51" s="29" t="s">
+      <c r="R51" s="41"/>
+      <c r="S51" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T51" s="31"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="29" t="s">
+      <c r="T51" s="26"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="W51" s="26"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="W51" s="31"/>
-      <c r="X51" s="30"/>
-      <c r="Y51" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z51" s="31"/>
-      <c r="AA51" s="31"/>
-      <c r="AB51" s="31"/>
-      <c r="AC51" s="31"/>
-      <c r="AD51" s="31"/>
-      <c r="AE51" s="31"/>
-      <c r="AF51" s="31"/>
-      <c r="AG51" s="31"/>
-      <c r="AH51" s="31"/>
-      <c r="AI51" s="31"/>
-      <c r="AJ51" s="31"/>
-      <c r="AK51" s="30"/>
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
+      <c r="AB51" s="35"/>
+      <c r="AC51" s="35"/>
+      <c r="AD51" s="35"/>
+      <c r="AE51" s="35"/>
+      <c r="AF51" s="35"/>
+      <c r="AG51" s="35"/>
+      <c r="AH51" s="35"/>
+      <c r="AI51" s="35"/>
+      <c r="AJ51" s="35"/>
+      <c r="AK51" s="36"/>
       <c r="AL51" s="24"/>
       <c r="AM51" s="24"/>
       <c r="AN51" s="24"/>
@@ -7695,61 +7698,61 @@
       <c r="AQ51" s="24"/>
     </row>
     <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="32">
+      <c r="A52" s="41">
         <v>8</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32" t="s">
+      <c r="B52" s="41"/>
+      <c r="C52" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="N52" s="32"/>
-      <c r="O52" s="53">
+      <c r="N52" s="41"/>
+      <c r="O52" s="42">
         <v>128</v>
       </c>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="32" t="s">
+      <c r="P52" s="43"/>
+      <c r="Q52" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R52" s="32"/>
-      <c r="S52" s="29" t="s">
+      <c r="R52" s="41"/>
+      <c r="S52" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T52" s="31"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="W52" s="31"/>
-      <c r="X52" s="30"/>
-      <c r="Y52" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z52" s="31"/>
-      <c r="AA52" s="31"/>
-      <c r="AB52" s="31"/>
-      <c r="AC52" s="31"/>
-      <c r="AD52" s="31"/>
-      <c r="AE52" s="31"/>
-      <c r="AF52" s="31"/>
-      <c r="AG52" s="31"/>
-      <c r="AH52" s="31"/>
-      <c r="AI52" s="31"/>
-      <c r="AJ52" s="31"/>
-      <c r="AK52" s="30"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="27"/>
+      <c r="V52" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="W52" s="26"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="35"/>
+      <c r="AC52" s="35"/>
+      <c r="AD52" s="35"/>
+      <c r="AE52" s="35"/>
+      <c r="AF52" s="35"/>
+      <c r="AG52" s="35"/>
+      <c r="AH52" s="35"/>
+      <c r="AI52" s="35"/>
+      <c r="AJ52" s="35"/>
+      <c r="AK52" s="36"/>
       <c r="AL52" s="24"/>
       <c r="AM52" s="24"/>
       <c r="AN52" s="24"/>
@@ -7758,61 +7761,61 @@
       <c r="AQ52" s="24"/>
     </row>
     <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="32">
+      <c r="A53" s="41">
         <v>9</v>
       </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32" t="s">
+      <c r="B53" s="41"/>
+      <c r="C53" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32" t="s">
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="N53" s="41"/>
+      <c r="O53" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32" t="s">
+      <c r="P53" s="27"/>
+      <c r="Q53" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="N53" s="32"/>
-      <c r="O53" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="32" t="s">
+      <c r="R53" s="41"/>
+      <c r="S53" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R53" s="32"/>
-      <c r="S53" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="T53" s="31"/>
-      <c r="U53" s="30"/>
-      <c r="V53" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="W53" s="56"/>
-      <c r="X53" s="57"/>
-      <c r="Y53" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z53" s="31"/>
-      <c r="AA53" s="31"/>
-      <c r="AB53" s="31"/>
-      <c r="AC53" s="31"/>
-      <c r="AD53" s="31"/>
-      <c r="AE53" s="31"/>
-      <c r="AF53" s="31"/>
-      <c r="AG53" s="31"/>
-      <c r="AH53" s="31"/>
-      <c r="AI53" s="31"/>
-      <c r="AJ53" s="31"/>
-      <c r="AK53" s="30"/>
+      <c r="T53" s="26"/>
+      <c r="U53" s="27"/>
+      <c r="V53" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="W53" s="35"/>
+      <c r="X53" s="36"/>
+      <c r="Y53" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="35"/>
+      <c r="AE53" s="35"/>
+      <c r="AF53" s="35"/>
+      <c r="AG53" s="35"/>
+      <c r="AH53" s="35"/>
+      <c r="AI53" s="35"/>
+      <c r="AJ53" s="35"/>
+      <c r="AK53" s="36"/>
       <c r="AL53" s="24"/>
       <c r="AM53" s="24"/>
       <c r="AN53" s="24"/>
@@ -7821,347 +7824,232 @@
       <c r="AQ53" s="24"/>
     </row>
     <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="58">
+      <c r="A54" s="37">
         <v>10</v>
       </c>
-      <c r="B54" s="59"/>
-      <c r="C54" s="58" t="s">
+      <c r="B54" s="38"/>
+      <c r="C54" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="J54" s="60"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="58" t="s">
+      <c r="N54" s="38"/>
+      <c r="O54" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="R54" s="38"/>
+      <c r="S54" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="N54" s="59"/>
-      <c r="O54" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="R54" s="59"/>
-      <c r="S54" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="T54" s="60"/>
-      <c r="U54" s="60"/>
-      <c r="V54" s="61" t="s">
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="W54" s="61"/>
-      <c r="X54" s="61"/>
-      <c r="Y54" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z54" s="60"/>
-      <c r="AA54" s="60"/>
-      <c r="AB54" s="60"/>
-      <c r="AC54" s="60"/>
-      <c r="AD54" s="60"/>
-      <c r="AE54" s="60"/>
-      <c r="AF54" s="60"/>
-      <c r="AG54" s="60"/>
-      <c r="AH54" s="60"/>
-      <c r="AI54" s="60"/>
-      <c r="AJ54" s="60"/>
-      <c r="AK54" s="59"/>
+      <c r="Z54" s="63"/>
+      <c r="AA54" s="63"/>
+      <c r="AB54" s="63"/>
+      <c r="AC54" s="63"/>
+      <c r="AD54" s="63"/>
+      <c r="AE54" s="63"/>
+      <c r="AF54" s="63"/>
+      <c r="AG54" s="63"/>
+      <c r="AH54" s="63"/>
+      <c r="AI54" s="63"/>
+      <c r="AJ54" s="63"/>
+      <c r="AK54" s="64"/>
     </row>
     <row r="55" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A55" s="58"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="58"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="58"/>
-      <c r="R55" s="59"/>
-      <c r="S55" s="58"/>
-      <c r="T55" s="60"/>
-      <c r="U55" s="60"/>
-      <c r="V55" s="61"/>
-      <c r="W55" s="61"/>
-      <c r="X55" s="61"/>
-      <c r="Y55" s="58"/>
-      <c r="Z55" s="60"/>
-      <c r="AA55" s="60"/>
-      <c r="AB55" s="60"/>
-      <c r="AC55" s="60"/>
-      <c r="AD55" s="60"/>
-      <c r="AE55" s="60"/>
-      <c r="AF55" s="60"/>
-      <c r="AG55" s="60"/>
-      <c r="AH55" s="60"/>
-      <c r="AI55" s="60"/>
-      <c r="AJ55" s="60"/>
-      <c r="AK55" s="59"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="37"/>
+      <c r="Z55" s="39"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="39"/>
+      <c r="AF55" s="39"/>
+      <c r="AG55" s="39"/>
+      <c r="AH55" s="39"/>
+      <c r="AI55" s="39"/>
+      <c r="AJ55" s="39"/>
+      <c r="AK55" s="38"/>
     </row>
     <row r="56" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A56" s="58"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="58"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="58"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="61"/>
-      <c r="R56" s="61"/>
-      <c r="S56" s="58"/>
-      <c r="T56" s="60"/>
-      <c r="U56" s="60"/>
-      <c r="V56" s="61"/>
-      <c r="W56" s="61"/>
-      <c r="X56" s="61"/>
-      <c r="Y56" s="58"/>
-      <c r="Z56" s="60"/>
-      <c r="AA56" s="60"/>
-      <c r="AB56" s="60"/>
-      <c r="AC56" s="60"/>
-      <c r="AD56" s="60"/>
-      <c r="AE56" s="60"/>
-      <c r="AF56" s="60"/>
-      <c r="AG56" s="60"/>
-      <c r="AH56" s="60"/>
-      <c r="AI56" s="60"/>
-      <c r="AJ56" s="60"/>
-      <c r="AK56" s="59"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="40"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="40"/>
+      <c r="X56" s="40"/>
+      <c r="Y56" s="37"/>
+      <c r="Z56" s="39"/>
+      <c r="AA56" s="39"/>
+      <c r="AB56" s="39"/>
+      <c r="AC56" s="39"/>
+      <c r="AD56" s="39"/>
+      <c r="AE56" s="39"/>
+      <c r="AF56" s="39"/>
+      <c r="AG56" s="39"/>
+      <c r="AH56" s="39"/>
+      <c r="AI56" s="39"/>
+      <c r="AJ56" s="39"/>
+      <c r="AK56" s="38"/>
     </row>
     <row r="57" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A57" s="58"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="58"/>
-      <c r="N57" s="59"/>
-      <c r="O57" s="58"/>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="58"/>
-      <c r="R57" s="59"/>
-      <c r="S57" s="58"/>
-      <c r="T57" s="60"/>
-      <c r="U57" s="60"/>
-      <c r="V57" s="61"/>
-      <c r="W57" s="61"/>
-      <c r="X57" s="61"/>
-      <c r="Y57" s="58"/>
-      <c r="Z57" s="60"/>
-      <c r="AA57" s="60"/>
-      <c r="AB57" s="60"/>
-      <c r="AC57" s="60"/>
-      <c r="AD57" s="60"/>
-      <c r="AE57" s="60"/>
-      <c r="AF57" s="60"/>
-      <c r="AG57" s="60"/>
-      <c r="AH57" s="60"/>
-      <c r="AI57" s="60"/>
-      <c r="AJ57" s="60"/>
-      <c r="AK57" s="59"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="38"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="39"/>
+      <c r="U57" s="39"/>
+      <c r="V57" s="40"/>
+      <c r="W57" s="40"/>
+      <c r="X57" s="40"/>
+      <c r="Y57" s="37"/>
+      <c r="Z57" s="39"/>
+      <c r="AA57" s="39"/>
+      <c r="AB57" s="39"/>
+      <c r="AC57" s="39"/>
+      <c r="AD57" s="39"/>
+      <c r="AE57" s="39"/>
+      <c r="AF57" s="39"/>
+      <c r="AG57" s="39"/>
+      <c r="AH57" s="39"/>
+      <c r="AI57" s="39"/>
+      <c r="AJ57" s="39"/>
+      <c r="AK57" s="38"/>
     </row>
     <row r="58" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A58" s="58"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="59"/>
-      <c r="M58" s="58"/>
-      <c r="N58" s="59"/>
-      <c r="O58" s="58"/>
-      <c r="P58" s="59"/>
-      <c r="Q58" s="58"/>
-      <c r="R58" s="59"/>
-      <c r="S58" s="58"/>
-      <c r="T58" s="60"/>
-      <c r="U58" s="60"/>
-      <c r="V58" s="61"/>
-      <c r="W58" s="61"/>
-      <c r="X58" s="61"/>
-      <c r="Y58" s="58"/>
-      <c r="Z58" s="60"/>
-      <c r="AA58" s="60"/>
-      <c r="AB58" s="60"/>
-      <c r="AC58" s="60"/>
-      <c r="AD58" s="60"/>
-      <c r="AE58" s="60"/>
-      <c r="AF58" s="60"/>
-      <c r="AG58" s="60"/>
-      <c r="AH58" s="60"/>
-      <c r="AI58" s="60"/>
-      <c r="AJ58" s="60"/>
-      <c r="AK58" s="59"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="38"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="40"/>
+      <c r="X58" s="40"/>
+      <c r="Y58" s="37"/>
+      <c r="Z58" s="39"/>
+      <c r="AA58" s="39"/>
+      <c r="AB58" s="39"/>
+      <c r="AC58" s="39"/>
+      <c r="AD58" s="39"/>
+      <c r="AE58" s="39"/>
+      <c r="AF58" s="39"/>
+      <c r="AG58" s="39"/>
+      <c r="AH58" s="39"/>
+      <c r="AI58" s="39"/>
+      <c r="AJ58" s="39"/>
+      <c r="AK58" s="38"/>
     </row>
     <row r="61" spans="1:43" ht="12.75" customHeight="1">
       <c r="B61" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="Y48:AK48"/>
-    <mergeCell ref="Y53:AK53"/>
-    <mergeCell ref="Y52:AK52"/>
-    <mergeCell ref="Y51:AK51"/>
-    <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="Y49:AK49"/>
-    <mergeCell ref="Y43:AK44"/>
-    <mergeCell ref="Y47:AK47"/>
-    <mergeCell ref="Y46:AK46"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="O43:P44"/>
-    <mergeCell ref="S43:U44"/>
-    <mergeCell ref="V43:X44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AK58"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Y57:AK57"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AK56"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AK55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AK54"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="C45:H45"/>
     <mergeCell ref="I45:L45"/>
@@ -8182,15 +8070,130 @@
     <mergeCell ref="Z4:AB5"/>
     <mergeCell ref="AC4:AE5"/>
     <mergeCell ref="Y45:AK45"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AK54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AK56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AK57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AK58"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="O43:P44"/>
+    <mergeCell ref="S43:U44"/>
+    <mergeCell ref="V43:X44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="Y53:AK53"/>
+    <mergeCell ref="Y52:AK52"/>
+    <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="Y50:AK50"/>
+    <mergeCell ref="Y49:AK49"/>
+    <mergeCell ref="Y43:AK44"/>
+    <mergeCell ref="Y47:AK47"/>
+    <mergeCell ref="Y46:AK46"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
